--- a/Predictions/2024-25/Week 19.xlsx
+++ b/Predictions/2024-25/Week 19.xlsx
@@ -1,33 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corridog/Documents/FPL-predictor/Predictions/2024-25/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4190C15-9004-E144-9E43-3AB2A2CA0A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="19800" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1222,8 +1204,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,78 +1242,61 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AM163" totalsRowShown="0">
-  <autoFilter ref="A1:AM163" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="38">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:AM157">
-    <sortCondition descending="1" ref="AJ1:AJ163"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AM163" totalsRowShown="0">
+  <autoFilter ref="A1:AM163"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="First Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Web Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Position"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GKP"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DEF"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MID"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FWD"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Team"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ARS"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="AVL"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="BOU"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BRE"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BHA"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="CHE"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="CRY"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="EVE"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="FUL"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="IPS"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="LEI"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="LIV"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="MCI"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="MUN"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="NEW"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="NFO"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="SOU"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="TOT"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="WHU"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="WOL"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Cost"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="ID"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="ARIMA"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LSTM"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="FOREST"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="PP"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="NEXT"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Health"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="PREV"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Selected"/>
+    <tableColumn id="1" name="First Name"/>
+    <tableColumn id="2" name="Surname"/>
+    <tableColumn id="3" name="Web Name"/>
+    <tableColumn id="4" name="Position"/>
+    <tableColumn id="5" name="GKP"/>
+    <tableColumn id="6" name="DEF"/>
+    <tableColumn id="7" name="MID"/>
+    <tableColumn id="8" name="FWD"/>
+    <tableColumn id="9" name="Team"/>
+    <tableColumn id="10" name="ARS"/>
+    <tableColumn id="11" name="AVL"/>
+    <tableColumn id="12" name="BOU"/>
+    <tableColumn id="13" name="BRE"/>
+    <tableColumn id="14" name="BHA"/>
+    <tableColumn id="15" name="CHE"/>
+    <tableColumn id="16" name="CRY"/>
+    <tableColumn id="17" name="EVE"/>
+    <tableColumn id="18" name="FUL"/>
+    <tableColumn id="19" name="IPS"/>
+    <tableColumn id="20" name="LEI"/>
+    <tableColumn id="21" name="LIV"/>
+    <tableColumn id="22" name="MCI"/>
+    <tableColumn id="23" name="MUN"/>
+    <tableColumn id="24" name="NEW"/>
+    <tableColumn id="25" name="NFO"/>
+    <tableColumn id="26" name="SOU"/>
+    <tableColumn id="27" name="TOT"/>
+    <tableColumn id="28" name="WHU"/>
+    <tableColumn id="29" name="WOL"/>
+    <tableColumn id="30" name="Cost"/>
+    <tableColumn id="31" name="ID"/>
+    <tableColumn id="32" name="ARIMA"/>
+    <tableColumn id="33" name="LSTM"/>
+    <tableColumn id="34" name="FOREST"/>
+    <tableColumn id="35" name="PP"/>
+    <tableColumn id="36" name="NEXT"/>
+    <tableColumn id="37" name="Health"/>
+    <tableColumn id="38" name="PREV"/>
+    <tableColumn id="39" name="Selected"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1369,7 +1334,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1403,7 +1368,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1438,10 +1402,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1614,21 +1577,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="29" width="0" hidden="1" customWidth="1"/>
     <col min="31" max="34" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1747,7 +1708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1842,21 +1803,21 @@
         <v>2</v>
       </c>
       <c r="AF2">
-        <v>21.610417682618831</v>
+        <v>21.61041768261883</v>
       </c>
       <c r="AG2">
-        <v>18.072762436843391</v>
+        <v>18.07276243684339</v>
       </c>
       <c r="AH2">
-        <v>23.737611586068379</v>
+        <v>23.73761158606838</v>
       </c>
       <c r="AI2">
-        <f>21.4346764878096*1</f>
-        <v>21.4346764878096</v>
+        <f>21.434676487809632*1</f>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <f>4.68280822954588*1</f>
-        <v>4.6828082295458797</v>
+        <f>4.682808229545883*1</f>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>1</v>
@@ -1872,13 +1833,13 @@
       </c>
       <c r="AP2">
         <f>SUMPRODUCT(Table1[Selected], Table1[PP])</f>
-        <v>355.90692632637769</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1976,18 +1937,18 @@
         <v>20.85564955014193</v>
       </c>
       <c r="AG3">
-        <v>17.858891409940689</v>
+        <v>17.85889140994069</v>
       </c>
       <c r="AH3">
-        <v>17.355555555555551</v>
+        <v>17.35555555555555</v>
       </c>
       <c r="AI3">
         <f>8.98146849913245*1</f>
-        <v>8.9814684991324505</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <f>1.90441291785715*1</f>
-        <v>1.9044129178571501</v>
+        <f>1.904412917857157*1</f>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>1</v>
@@ -1999,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2103,11 +2064,11 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK4">
@@ -2124,13 +2085,13 @@
       </c>
       <c r="AP4">
         <f>SUMPRODUCT(Table1[Selected],Table1[Cost])</f>
-        <v>95.199999999999989</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2225,21 +2186,21 @@
         <v>8</v>
       </c>
       <c r="AF5">
-        <v>21.726190476190482</v>
+        <v>21.72619047619048</v>
       </c>
       <c r="AG5">
-        <v>27.557910409662949</v>
+        <v>27.55791040966295</v>
       </c>
       <c r="AH5">
-        <v>18.524999999999999</v>
+        <v>18.525</v>
       </c>
       <c r="AI5">
-        <f>9.09617985238191*1</f>
-        <v>9.0961798523819102</v>
+        <f>9.096179852381912*1</f>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <f>1.50080720373089*1</f>
-        <v>1.5008072037308899</v>
+        <f>1.5008072037308928*1</f>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -2251,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2346,21 +2307,21 @@
         <v>11</v>
       </c>
       <c r="AF6">
-        <v>20.385520470430489</v>
+        <v>20.38552047043049</v>
       </c>
       <c r="AG6">
-        <v>20.547504037081541</v>
+        <v>20.54750403708154</v>
       </c>
       <c r="AH6">
-        <v>32.837337036134983</v>
+        <v>32.83733703613498</v>
       </c>
       <c r="AI6">
-        <f>20.8597126510655*1</f>
-        <v>20.8597126510655</v>
+        <f>20.859712651065557*1</f>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <f>4.09282772285976*1</f>
-        <v>4.0928277228597603</v>
+        <f>4.092827722859763*1</f>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -2379,13 +2340,13 @@
       </c>
       <c r="AQ6">
         <f>SUMPRODUCT(Table1[Selected],Table1[GKP])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2489,12 +2450,12 @@
         <v>41.36</v>
       </c>
       <c r="AI7">
-        <f>21.0092280346077*1</f>
-        <v>21.009228034607698</v>
+        <f>21.009228034607755*1</f>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <f>4.11926552209394*1</f>
-        <v>4.11926552209394</v>
+        <f>4.119265522093943*1</f>
+        <v>0</v>
       </c>
       <c r="AK7">
         <v>1</v>
@@ -2513,13 +2474,13 @@
       </c>
       <c r="AQ7">
         <f>SUMPRODUCT(Table1[Selected],Table1[DEF])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2614,20 +2575,20 @@
         <v>13</v>
       </c>
       <c r="AF8">
-        <v>32.343033464457989</v>
+        <v>32.34303346445799</v>
       </c>
       <c r="AG8">
-        <v>27.877246854566671</v>
+        <v>27.87724685456667</v>
       </c>
       <c r="AH8">
-        <v>21.449596439153911</v>
+        <v>21.44959643915391</v>
       </c>
       <c r="AI8">
-        <f>17.6853888835677*0</f>
+        <f>17.685388883567786*0</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>3.4577236711216*0</f>
+        <f>3.457723671121606*0</f>
         <v>0</v>
       </c>
       <c r="AK8">
@@ -2647,13 +2608,13 @@
       </c>
       <c r="AQ8">
         <f>SUMPRODUCT(Table1[Selected],Table1[MID])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -2748,21 +2709,21 @@
         <v>14</v>
       </c>
       <c r="AF9">
-        <v>21.202531645569621</v>
+        <v>21.20253164556962</v>
       </c>
       <c r="AG9">
         <v>18.9623055682199</v>
       </c>
       <c r="AH9">
-        <v>22.245150291581229</v>
+        <v>22.24515029158123</v>
       </c>
       <c r="AI9">
-        <f>24.7627807849318*1</f>
-        <v>24.762780784931799</v>
+        <f>24.76278078493185*1</f>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <f>5.04579822965605*1</f>
-        <v>5.0457982296560502</v>
+        <f>5.045798229656057*1</f>
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>1</v>
@@ -2781,13 +2742,13 @@
       </c>
       <c r="AQ9">
         <f>SUMPRODUCT(Table1[Selected],Table1[FWD])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -2885,18 +2846,18 @@
         <v>12.14953271028037</v>
       </c>
       <c r="AG10">
-        <v>10.551736898884791</v>
+        <v>10.55173689888479</v>
       </c>
       <c r="AH10">
-        <v>11.017227414667669</v>
+        <v>11.01722741466767</v>
       </c>
       <c r="AI10">
-        <f>12.9184834424367*1</f>
-        <v>12.918483442436701</v>
+        <f>12.918483442436736*1</f>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <f>2.5629866594711*1</f>
-        <v>2.5629866594710999</v>
+        <f>2.5629866594711004*1</f>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>1</v>
@@ -2915,13 +2876,13 @@
       </c>
       <c r="AQ10">
         <f>SUM(SUMPRODUCT(Table1[Selected],Table1[GKP]), SUMPRODUCT(Table1[Selected],Table1[DEF]), SUMPRODUCT(Table1[Selected],Table1[MID]), SUMPRODUCT(Table1[Selected],Table1[FWD]))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AR10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -3016,21 +2977,21 @@
         <v>18</v>
       </c>
       <c r="AF11">
-        <v>19.234972677595628</v>
+        <v>19.23497267759563</v>
       </c>
       <c r="AG11">
-        <v>18.457348395297242</v>
+        <v>18.45734839529724</v>
       </c>
       <c r="AH11">
-        <v>19.243538870858181</v>
+        <v>19.24353887085818</v>
       </c>
       <c r="AI11">
-        <f>13.5239856978672*1</f>
-        <v>13.5239856978672</v>
+        <f>13.523985697867287*1</f>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <f>2.45345167556399*1</f>
-        <v>2.4534516755639899</v>
+        <f>2.453451675563999*1</f>
+        <v>0</v>
       </c>
       <c r="AK11">
         <v>1</v>
@@ -3042,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3140,18 +3101,18 @@
         <v>10.56603773584906</v>
       </c>
       <c r="AG12">
-        <v>12.587537784244271</v>
+        <v>12.58753778424427</v>
       </c>
       <c r="AH12">
         <v>18.37075538731057</v>
       </c>
       <c r="AI12">
-        <f>11.971865483884*1</f>
-        <v>11.971865483884001</v>
+        <f>11.971865483884022*1</f>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <f>2.32485699122089*1</f>
-        <v>2.3248569912208898</v>
+        <f>2.324856991220894*1</f>
+        <v>0</v>
       </c>
       <c r="AK12">
         <v>1</v>
@@ -3170,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3259,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AE13">
         <v>49</v>
@@ -3268,18 +3229,18 @@
         <v>13.72832369942199</v>
       </c>
       <c r="AG13">
-        <v>13.665480809423251</v>
+        <v>13.66548080942325</v>
       </c>
       <c r="AH13">
         <v>7.61180047702205</v>
       </c>
       <c r="AI13">
-        <f>7.30493527298567*1</f>
-        <v>7.30493527298567</v>
+        <f>7.304935272985676*1</f>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <f>1.46736323366542*1</f>
-        <v>1.4673632336654201</v>
+        <f>1.4673632336654252*1</f>
+        <v>0</v>
       </c>
       <c r="AK13">
         <v>1</v>
@@ -3294,10 +3255,10 @@
         <v>9</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -3392,21 +3353,21 @@
         <v>52</v>
       </c>
       <c r="AF14">
-        <v>16.551724137931039</v>
+        <v>16.55172413793104</v>
       </c>
       <c r="AG14">
-        <v>16.291125307035738</v>
+        <v>16.29112530703574</v>
       </c>
       <c r="AH14">
         <v>10.04151410260773</v>
       </c>
       <c r="AI14">
-        <f>5.3062249826186*1</f>
-        <v>5.3062249826186001</v>
+        <f>5.306224982618603*1</f>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <f>0.988310702945797*1</f>
-        <v>0.98831070294579704</v>
+        <f>0.9883107029457974*1</f>
+        <v>0</v>
       </c>
       <c r="AK14">
         <v>1</v>
@@ -3418,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -3522,12 +3483,12 @@
         <v>22.10332175448567</v>
       </c>
       <c r="AI15">
-        <f>14.3263894026558*1</f>
-        <v>14.326389402655799</v>
+        <f>14.32638940265587*1</f>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <f>2.86657409452989*1</f>
-        <v>2.8665740945298901</v>
+        <f>2.8665740945298936*1</f>
+        <v>0</v>
       </c>
       <c r="AK15">
         <v>1</v>
@@ -3546,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -3641,21 +3602,21 @@
         <v>59</v>
       </c>
       <c r="AF16">
-        <v>19.931916612322041</v>
+        <v>19.93191661232204</v>
       </c>
       <c r="AG16">
         <v>14.70752327932486</v>
       </c>
       <c r="AH16">
-        <v>46.779993894993893</v>
+        <v>46.77999389499389</v>
       </c>
       <c r="AI16">
-        <f>15.9177782171712*1</f>
-        <v>15.9177782171712</v>
+        <f>15.917778217171296*1</f>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <f>3.0452545564018*1</f>
-        <v>3.0452545564018001</v>
+        <f>3.0452545564018028*1</f>
+        <v>0</v>
       </c>
       <c r="AK16">
         <v>1</v>
@@ -3667,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3756,27 +3717,27 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE17">
         <v>63</v>
       </c>
       <c r="AF17">
-        <v>23.702531645569621</v>
+        <v>23.70253164556962</v>
       </c>
       <c r="AG17">
-        <v>24.548836040165661</v>
+        <v>24.54883604016566</v>
       </c>
       <c r="AH17">
         <v>12.39892610785857</v>
       </c>
       <c r="AI17">
-        <f>10.0623552580367*1</f>
-        <v>10.0623552580367</v>
+        <f>10.062355258036709*1</f>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <f>1.97428535940521*1</f>
-        <v>1.9742853594052101</v>
+        <f>1.9742853594052159*1</f>
+        <v>0</v>
       </c>
       <c r="AK17">
         <v>1</v>
@@ -3795,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -3884,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AE18">
         <v>75</v>
@@ -3900,11 +3861,11 @@
       </c>
       <c r="AI18">
         <f>9.77636739822826*1</f>
-        <v>9.7763673982282597</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <f>1.92250239500986*1</f>
-        <v>1.9225023950098601</v>
+        <f>1.9225023950098683*1</f>
+        <v>0</v>
       </c>
       <c r="AK18">
         <v>1</v>
@@ -3916,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -4014,18 +3975,18 @@
         <v>11.20689655172413</v>
       </c>
       <c r="AG19">
-        <v>9.9668554143780952</v>
+        <v>9.966855414378095</v>
       </c>
       <c r="AH19">
-        <v>10.573966092566801</v>
+        <v>10.5739660925668</v>
       </c>
       <c r="AI19">
-        <f>14.6841008209755*1</f>
-        <v>14.6841008209755</v>
+        <f>14.684100820975543*1</f>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <f>2.98284725445614*1</f>
-        <v>2.9828472544561402</v>
+        <f>2.9828472544561473*1</f>
+        <v>0</v>
       </c>
       <c r="AK19">
         <v>1</v>
@@ -4047,33 +4008,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>302</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4082,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -4118,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -4136,27 +4097,27 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>9.1</v>
+        <v>4.7</v>
       </c>
       <c r="AE20">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AF20">
-        <v>28.30769230769231</v>
+        <v>20.54495817993748</v>
       </c>
       <c r="AG20">
-        <v>26.52047465360803</v>
+        <v>10.61665009624241</v>
       </c>
       <c r="AH20">
-        <v>70.797817460317447</v>
+        <v>25.06157035633912</v>
       </c>
       <c r="AI20">
-        <f>50.580125895859*1</f>
-        <v>50.580125895858998</v>
+        <f>16.08514783088377*1</f>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <f>9.63403089412972*1</f>
-        <v>9.6340308941297206</v>
+        <f>3.333255573945648*1</f>
+        <v>0</v>
       </c>
       <c r="AK20">
         <v>1</v>
@@ -4178,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -4279,15 +4240,15 @@
         <v>12.17826548348396</v>
       </c>
       <c r="AH21">
-        <v>45.075704141935887</v>
+        <v>45.07570414193589</v>
       </c>
       <c r="AI21">
-        <f>17.263463913188*1</f>
-        <v>17.263463913188001</v>
+        <f>17.26346391318807*1</f>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <f>3.30556636865184*1</f>
-        <v>3.3055663686518399</v>
+        <f>3.3055663686518404*1</f>
+        <v>0</v>
       </c>
       <c r="AK21">
         <v>1</v>
@@ -4303,13 +4264,13 @@
       </c>
       <c r="AP21">
         <f>SUMPRODUCT(Table1[Selected],Table1[BOU])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -4404,21 +4365,21 @@
         <v>85</v>
       </c>
       <c r="AF22">
-        <v>11.311475409836071</v>
+        <v>11.31147540983607</v>
       </c>
       <c r="AG22">
-        <v>9.1530683223403368</v>
+        <v>9.153068322340337</v>
       </c>
       <c r="AH22">
-        <v>23.328385964912279</v>
+        <v>23.32838596491228</v>
       </c>
       <c r="AI22">
-        <f>13.390285869109*1</f>
-        <v>13.390285869109</v>
+        <f>13.390285869109096*1</f>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <f>2.6524446584399*1</f>
-        <v>2.6524446584399</v>
+        <f>2.6524446584399084*1</f>
+        <v>0</v>
       </c>
       <c r="AK22">
         <v>1</v>
@@ -4434,13 +4395,13 @@
       </c>
       <c r="AP22">
         <f>SUMPRODUCT(Table1[Selected],Table1[BRE])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -4535,21 +4496,21 @@
         <v>89</v>
       </c>
       <c r="AF23">
-        <v>16.120689655172409</v>
+        <v>16.12068965517241</v>
       </c>
       <c r="AG23">
-        <v>12.403016406617409</v>
+        <v>12.40301640661741</v>
       </c>
       <c r="AH23">
-        <v>42.109705331705342</v>
+        <v>42.10970533170534</v>
       </c>
       <c r="AI23">
-        <f>19.1151563429302*1</f>
-        <v>19.115156342930199</v>
+        <f>19.115156342930266*1</f>
+        <v>0</v>
       </c>
       <c r="AJ23">
-        <f>3.55953707066605*1</f>
-        <v>3.5595370706660501</v>
+        <f>3.559537070666055*1</f>
+        <v>0</v>
       </c>
       <c r="AK23">
         <v>1</v>
@@ -4571,7 +4532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -4672,15 +4633,15 @@
         <v>10.17667335656521</v>
       </c>
       <c r="AH24">
-        <v>15.235213619077699</v>
+        <v>15.2352136190777</v>
       </c>
       <c r="AI24">
         <f>8.50077344146676*1</f>
-        <v>8.5007734414667606</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <f>1.77518505384543*1</f>
-        <v>1.7751850538454299</v>
+        <f>1.775185053845432*1</f>
+        <v>0</v>
       </c>
       <c r="AK24">
         <v>1</v>
@@ -4702,7 +4663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -4800,18 +4761,18 @@
         <v>16.81818181818182</v>
       </c>
       <c r="AG25">
-        <v>22.137666946583789</v>
+        <v>22.13766694658379</v>
       </c>
       <c r="AH25">
-        <v>22.883333333333329</v>
+        <v>22.88333333333333</v>
       </c>
       <c r="AI25">
-        <f>12.9624211416718*1</f>
-        <v>12.9624211416718</v>
+        <f>12.962421141671827*1</f>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <f>2.40207490483944*1</f>
-        <v>2.4020749048394401</v>
+        <f>2.4020749048394467*1</f>
+        <v>0</v>
       </c>
       <c r="AK25">
         <v>1</v>
@@ -4827,13 +4788,13 @@
       </c>
       <c r="AP25">
         <f>SUMPRODUCT(Table1[Selected],Table1[CRY])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -4922,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AE26">
         <v>95</v>
@@ -4931,18 +4892,18 @@
         <v>11.81034482758621</v>
       </c>
       <c r="AG26">
-        <v>10.446326952040939</v>
+        <v>10.44632695204094</v>
       </c>
       <c r="AH26">
-        <v>22.951546240028382</v>
+        <v>22.95154624002838</v>
       </c>
       <c r="AI26">
-        <f>10.254876880144*1</f>
-        <v>10.254876880144</v>
+        <f>10.254876880144055*1</f>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <f>2.00841209088475*1</f>
-        <v>2.0084120908847498</v>
+        <f>2.008412090884752*1</f>
+        <v>0</v>
       </c>
       <c r="AK26">
         <v>1</v>
@@ -4958,13 +4919,13 @@
       </c>
       <c r="AP26">
         <f>SUMPRODUCT(Table1[Selected],Table1[EVE])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -5059,21 +5020,21 @@
         <v>96</v>
       </c>
       <c r="AF27">
-        <v>18.589743589743591</v>
+        <v>18.58974358974359</v>
       </c>
       <c r="AG27">
-        <v>18.264044832008501</v>
+        <v>18.2640448320085</v>
       </c>
       <c r="AH27">
-        <v>29.551267278150579</v>
+        <v>29.55126727815058</v>
       </c>
       <c r="AI27">
-        <f>19.0963811034335*1</f>
-        <v>19.096381103433501</v>
+        <f>19.09638110343356*1</f>
+        <v>0</v>
       </c>
       <c r="AJ27">
-        <f>3.90325331641081*1</f>
-        <v>3.9032533164108099</v>
+        <f>3.9032533164108125*1</f>
+        <v>0</v>
       </c>
       <c r="AK27">
         <v>1</v>
@@ -5095,7 +5056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -5184,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AE28">
         <v>106</v>
@@ -5193,18 +5154,18 @@
         <v>12.8494623655914</v>
       </c>
       <c r="AG28">
-        <v>10.608704728085931</v>
+        <v>10.60870472808593</v>
       </c>
       <c r="AH28">
         <v>12.13054389572482</v>
       </c>
       <c r="AI28">
-        <f>13.4256076579528*1</f>
-        <v>13.425607657952799</v>
+        <f>13.42560765795281*1</f>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <f>2.65124837100233*1</f>
-        <v>2.65124837100233</v>
+        <f>2.6512483710023345*1</f>
+        <v>0</v>
       </c>
       <c r="AK28">
         <v>1</v>
@@ -5226,7 +5187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5321,21 +5282,21 @@
         <v>107</v>
       </c>
       <c r="AF29">
-        <v>17.589552435609551</v>
+        <v>17.58955243560955</v>
       </c>
       <c r="AG29">
-        <v>7.0639011311732389</v>
+        <v>7.063901131173239</v>
       </c>
       <c r="AH29">
-        <v>15.388299959782721</v>
+        <v>15.38829995978272</v>
       </c>
       <c r="AI29">
-        <f>8.03321586895668*1</f>
-        <v>8.0332158689566793</v>
+        <f>8.033215868956685*1</f>
+        <v>0</v>
       </c>
       <c r="AJ29">
-        <f>1.70256761921026*1</f>
-        <v>1.7025676192102599</v>
+        <f>1.7025676192102643*1</f>
+        <v>0</v>
       </c>
       <c r="AK29">
         <v>1</v>
@@ -5357,7 +5318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -5458,15 +5419,15 @@
         <v>18.91417427214909</v>
       </c>
       <c r="AH30">
-        <v>15.046537633356181</v>
+        <v>15.04653763335618</v>
       </c>
       <c r="AI30">
-        <f>11.49671205309*1</f>
-        <v>11.49671205309</v>
+        <f>11.496712053090095*1</f>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <f>2.31227762811778*1</f>
-        <v>2.3122776281177799</v>
+        <f>2.312277628117786*1</f>
+        <v>0</v>
       </c>
       <c r="AK30">
         <v>1</v>
@@ -5482,13 +5443,13 @@
       </c>
       <c r="AP30">
         <f>SUMPRODUCT(Table1[Selected],Table1[LIV])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -5592,12 +5553,12 @@
         <v>12.28888888888889</v>
       </c>
       <c r="AI31">
-        <f>3.8392901763663*1</f>
-        <v>3.8392901763662999</v>
+        <f>3.839290176366302*1</f>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <f>0.804409337701312*1</f>
-        <v>0.80440933770131196</v>
+        <f>0.8044093377013122*1</f>
+        <v>0</v>
       </c>
       <c r="AK31">
         <v>1</v>
@@ -5619,7 +5580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -5714,21 +5675,21 @@
         <v>117</v>
       </c>
       <c r="AF32">
-        <v>26.786086915447299</v>
+        <v>26.7860869154473</v>
       </c>
       <c r="AG32">
-        <v>21.102846083686469</v>
+        <v>21.10284608368647</v>
       </c>
       <c r="AH32">
-        <v>35.448815762840539</v>
+        <v>35.44881576284054</v>
       </c>
       <c r="AI32">
-        <f>13.7232495912077*1</f>
-        <v>13.723249591207701</v>
+        <f>13.723249591207768*1</f>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <f>2.88883185674549*1</f>
-        <v>2.8888318567454898</v>
+        <f>2.888831856745491*1</f>
+        <v>0</v>
       </c>
       <c r="AK32">
         <v>1</v>
@@ -5744,13 +5705,13 @@
       </c>
       <c r="AP32">
         <f>SUMPRODUCT(Table1[Selected],Table1[MUN])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -5845,21 +5806,21 @@
         <v>119</v>
       </c>
       <c r="AF33">
-        <v>13.928571428571431</v>
+        <v>13.92857142857143</v>
       </c>
       <c r="AG33">
-        <v>15.311101379351021</v>
+        <v>15.31110137935102</v>
       </c>
       <c r="AH33">
-        <v>9.3933281850515815</v>
+        <v>9.393328185051582</v>
       </c>
       <c r="AI33">
-        <f>9.09671040904062*1</f>
-        <v>9.0967104090406199</v>
+        <f>9.096710409040629*1</f>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <f>1.77331126598262*1</f>
-        <v>1.77331126598262</v>
+        <f>1.7733112659826282*1</f>
+        <v>0</v>
       </c>
       <c r="AK33">
         <v>1</v>
@@ -5875,13 +5836,13 @@
       </c>
       <c r="AP33">
         <f>SUMPRODUCT(Table1[Selected],Table1[NEW])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -5979,18 +5940,18 @@
         <v>14.5631067961165</v>
       </c>
       <c r="AG34">
-        <v>18.170910256041491</v>
+        <v>18.17091025604149</v>
       </c>
       <c r="AH34">
-        <v>7.4419499788810937</v>
+        <v>7.441949978881094</v>
       </c>
       <c r="AI34">
-        <f>6.19266513383453*1</f>
-        <v>6.19266513383453</v>
+        <f>6.192665133834531*1</f>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <f>1.30425016142343*1</f>
-        <v>1.3042501614234301</v>
+        <f>1.3042501614234354*1</f>
+        <v>0</v>
       </c>
       <c r="AK34">
         <v>1</v>
@@ -6006,13 +5967,13 @@
       </c>
       <c r="AP34">
         <f>SUMPRODUCT(Table1[Selected],Table1[NFO])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -6101,27 +6062,27 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AE35">
         <v>124</v>
       </c>
       <c r="AF35">
-        <v>13.260869565217391</v>
+        <v>13.26086956521739</v>
       </c>
       <c r="AG35">
-        <v>10.785186567562929</v>
+        <v>10.78518656756293</v>
       </c>
       <c r="AH35">
-        <v>20.076673280423279</v>
+        <v>20.07667328042328</v>
       </c>
       <c r="AI35">
-        <f>20.481438696208*1</f>
-        <v>20.481438696207999</v>
+        <f>20.481438696208002*1</f>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <f>4.02612852761503*1</f>
-        <v>4.0261285276150298</v>
+        <f>4.026128527615039*1</f>
+        <v>0</v>
       </c>
       <c r="AK35">
         <v>1</v>
@@ -6143,18 +6104,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>305</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6163,13 +6124,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -6181,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -6214,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -6232,27 +6193,27 @@
         <v>0</v>
       </c>
       <c r="AD36">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AE36">
-        <v>501</v>
+        <v>128</v>
       </c>
       <c r="AF36">
-        <v>23.03157033577417</v>
+        <v>22.56550085874014</v>
       </c>
       <c r="AG36">
-        <v>9.7174952518482947</v>
+        <v>13.55324307542338</v>
       </c>
       <c r="AH36">
-        <v>59.8888888888889</v>
+        <v>14.98704730805051</v>
       </c>
       <c r="AI36">
-        <f>45.422341071627*1</f>
-        <v>45.422341071627002</v>
+        <f>13.74017192132156*1</f>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <f>9.06625790354051*1</f>
-        <v>9.0662579035405102</v>
+        <f>2.691030421109403*1</f>
+        <v>0</v>
       </c>
       <c r="AK36">
         <v>1</v>
@@ -6268,13 +6229,13 @@
       </c>
       <c r="AP36">
         <f>SUMPRODUCT(Table1[Selected],Table1[TOT])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -6369,21 +6330,21 @@
         <v>141</v>
       </c>
       <c r="AF37">
-        <v>9.1463414634146361</v>
+        <v>9.146341463414636</v>
       </c>
       <c r="AG37">
-        <v>8.7098906426504143</v>
+        <v>8.709890642650414</v>
       </c>
       <c r="AH37">
         <v>27</v>
       </c>
       <c r="AI37">
-        <f>3.25210745942403*1</f>
-        <v>3.25210745942403</v>
+        <f>3.252107459424039*1</f>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <f>0.475184962343365*1</f>
-        <v>0.47518496234336499</v>
+        <f>0.4751849623433658*1</f>
+        <v>0</v>
       </c>
       <c r="AK37">
         <v>1</v>
@@ -6405,7 +6366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -6494,27 +6455,27 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AE38">
         <v>145</v>
       </c>
       <c r="AF38">
-        <v>15.582524271844649</v>
+        <v>15.58252427184465</v>
       </c>
       <c r="AG38">
-        <v>15.838754703133731</v>
+        <v>15.83875470313373</v>
       </c>
       <c r="AH38">
         <v>16.71588600736894</v>
       </c>
       <c r="AI38">
-        <f>10.1723765090499*1</f>
-        <v>10.172376509049901</v>
+        <f>10.172376509049993*1</f>
+        <v>0</v>
       </c>
       <c r="AJ38">
-        <f>2.03300889664783*1</f>
-        <v>2.0330088966478299</v>
+        <f>2.0330088966478344*1</f>
+        <v>0</v>
       </c>
       <c r="AK38">
         <v>1</v>
@@ -6530,13 +6491,13 @@
       </c>
       <c r="AP38">
         <f>SUMPRODUCT(Table1[Selected],Table1[WOL])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -6625,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="AD39">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AE39">
         <v>160</v>
@@ -6640,11 +6601,11 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ39">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK39">
@@ -6657,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -6761,11 +6722,11 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ40">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK40">
@@ -6778,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -6876,18 +6837,18 @@
         <v>10.3921568627451</v>
       </c>
       <c r="AG41">
-        <v>8.8867822103928589</v>
+        <v>8.886782210392859</v>
       </c>
       <c r="AH41">
         <v>19.18181818181818</v>
       </c>
       <c r="AI41">
-        <f>7.68429226450044*1</f>
-        <v>7.6842922645004403</v>
+        <f>7.684292264500441*1</f>
+        <v>0</v>
       </c>
       <c r="AJ41">
-        <f>1.60754913783219*1</f>
-        <v>1.60754913783219</v>
+        <f>1.607549137832198*1</f>
+        <v>0</v>
       </c>
       <c r="AK41">
         <v>1</v>
@@ -6899,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -6994,21 +6955,21 @@
         <v>170</v>
       </c>
       <c r="AF42">
-        <v>15.119677222341799</v>
+        <v>15.1196772223418</v>
       </c>
       <c r="AG42">
-        <v>13.209369438659969</v>
+        <v>13.20936943865997</v>
       </c>
       <c r="AH42">
-        <v>14.656026208965621</v>
+        <v>14.65602620896562</v>
       </c>
       <c r="AI42">
-        <f>10.0108223588297*1</f>
-        <v>10.010822358829699</v>
+        <f>10.010822358829785*1</f>
+        <v>0</v>
       </c>
       <c r="AJ42">
-        <f>2.00821148691635*1</f>
-        <v>2.0082114869163501</v>
+        <f>2.008211486916351*1</f>
+        <v>0</v>
       </c>
       <c r="AK42">
         <v>1</v>
@@ -7020,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -7115,21 +7076,21 @@
         <v>171</v>
       </c>
       <c r="AF43">
-        <v>15.416666666666661</v>
+        <v>15.41666666666666</v>
       </c>
       <c r="AG43">
         <v>14.69683869120553</v>
       </c>
       <c r="AH43">
-        <v>17.277127224627229</v>
+        <v>17.27712722462723</v>
       </c>
       <c r="AI43">
-        <f>8.37774710280843*1</f>
-        <v>8.3777471028084296</v>
+        <f>8.377747102808433*1</f>
+        <v>0</v>
       </c>
       <c r="AJ43">
-        <f>1.81334743390348*1</f>
-        <v>1.8133474339034801</v>
+        <f>1.813347433903485*1</f>
+        <v>0</v>
       </c>
       <c r="AK43">
         <v>1</v>
@@ -7141,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -7242,15 +7203,15 @@
         <v>12.95811249962702</v>
       </c>
       <c r="AH44">
-        <v>9.7846153846153854</v>
+        <v>9.784615384615385</v>
       </c>
       <c r="AI44">
-        <f>14.0565310084129*1</f>
-        <v>14.0565310084129</v>
+        <f>14.056531008412996*1</f>
+        <v>0</v>
       </c>
       <c r="AJ44">
-        <f>2.72474183806902*1</f>
-        <v>2.7247418380690198</v>
+        <f>2.7247418380690274*1</f>
+        <v>0</v>
       </c>
       <c r="AK44">
         <v>1</v>
@@ -7262,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -7366,11 +7327,11 @@
         <v>0</v>
       </c>
       <c r="AI45">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ45">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK45">
@@ -7383,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -7472,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="AD46">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AE46">
         <v>191</v>
@@ -7481,18 +7442,18 @@
         <v>15.40166869590333</v>
       </c>
       <c r="AG46">
-        <v>8.2804748645646491</v>
+        <v>8.280474864564649</v>
       </c>
       <c r="AH46">
-        <v>15.330209702069689</v>
+        <v>15.33020970206969</v>
       </c>
       <c r="AI46">
-        <f>13.5806056976537*1</f>
-        <v>13.5806056976537</v>
+        <f>13.580605697653754*1</f>
+        <v>0</v>
       </c>
       <c r="AJ46">
-        <f>2.90579390408513*1</f>
-        <v>2.9057939040851299</v>
+        <f>2.9057939040851393*1</f>
+        <v>0</v>
       </c>
       <c r="AK46">
         <v>1</v>
@@ -7504,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -7593,27 +7554,27 @@
         <v>0</v>
       </c>
       <c r="AD47">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AE47">
         <v>195</v>
       </c>
       <c r="AF47">
-        <v>13.392857142857141</v>
+        <v>13.39285714285714</v>
       </c>
       <c r="AG47">
-        <v>16.185465291549569</v>
+        <v>16.18546529154957</v>
       </c>
       <c r="AH47">
         <v>14.16190476190476</v>
       </c>
       <c r="AI47">
-        <f>15.4817813109485*1</f>
-        <v>15.481781310948501</v>
+        <f>15.481781310948534*1</f>
+        <v>0</v>
       </c>
       <c r="AJ47">
-        <f>3.31113454227897*1</f>
-        <v>3.3111345422789702</v>
+        <f>3.3111345422789773*1</f>
+        <v>0</v>
       </c>
       <c r="AK47">
         <v>1</v>
@@ -7625,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -7723,18 +7684,18 @@
         <v>13.0701754385965</v>
       </c>
       <c r="AG48">
-        <v>11.806682391352799</v>
+        <v>11.8066823913528</v>
       </c>
       <c r="AH48">
-        <v>21.866666666666671</v>
+        <v>21.86666666666667</v>
       </c>
       <c r="AI48">
-        <f>14.8613510743108*1</f>
-        <v>14.8613510743108</v>
+        <f>14.861351074310837*1</f>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <f>2.75936432203785*1</f>
-        <v>2.7593643220378499</v>
+        <f>2.759364322037858*1</f>
+        <v>0</v>
       </c>
       <c r="AK48">
         <v>1</v>
@@ -7746,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -7835,27 +7796,27 @@
         <v>0</v>
       </c>
       <c r="AD49">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AE49">
         <v>201</v>
       </c>
       <c r="AF49">
-        <v>14.465390967682939</v>
+        <v>14.46539096768294</v>
       </c>
       <c r="AG49">
-        <v>11.059991845964159</v>
+        <v>11.05999184596416</v>
       </c>
       <c r="AH49">
-        <v>15.816000000000001</v>
+        <v>15.816</v>
       </c>
       <c r="AI49">
-        <f>27.1154951272921*1</f>
-        <v>27.1154951272921</v>
+        <f>27.115495127292114*1</f>
+        <v>0</v>
       </c>
       <c r="AJ49">
-        <f>5.19059497958167*1</f>
-        <v>5.1905949795816699</v>
+        <f>5.190594979581672*1</f>
+        <v>0</v>
       </c>
       <c r="AK49">
         <v>1</v>
@@ -7867,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -7962,21 +7923,21 @@
         <v>210</v>
       </c>
       <c r="AF50">
-        <v>17.083333333333339</v>
+        <v>17.08333333333334</v>
       </c>
       <c r="AG50">
-        <v>22.699138256333139</v>
+        <v>22.69913825633314</v>
       </c>
       <c r="AH50">
         <v>23.42026203583729</v>
       </c>
       <c r="AI50">
-        <f>4.75177044361977*1</f>
-        <v>4.7517704436197699</v>
+        <f>4.751770443619775*1</f>
+        <v>0</v>
       </c>
       <c r="AJ50">
-        <f>0.877555340365166*1</f>
-        <v>0.87755534036516603</v>
+        <f>0.8775553403651668*1</f>
+        <v>0</v>
       </c>
       <c r="AK50">
         <v>1</v>
@@ -7988,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -8077,27 +8038,27 @@
         <v>0</v>
       </c>
       <c r="AD51">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE51">
         <v>213</v>
       </c>
       <c r="AF51">
-        <v>26.374085217471201</v>
+        <v>26.3740852174712</v>
       </c>
       <c r="AG51">
         <v>22.53807965958956</v>
       </c>
       <c r="AH51">
-        <v>25.912952155886831</v>
+        <v>25.91295215588683</v>
       </c>
       <c r="AI51">
-        <f>13.5521358409356*1</f>
-        <v>13.5521358409356</v>
+        <f>13.552135840935616*1</f>
+        <v>0</v>
       </c>
       <c r="AJ51">
-        <f>2.63532760409655*1</f>
-        <v>2.6353276040965499</v>
+        <f>2.6353276040965534*1</f>
+        <v>0</v>
       </c>
       <c r="AK51">
         <v>1</v>
@@ -8109,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -8207,18 +8168,18 @@
         <v>11.48148148148149</v>
       </c>
       <c r="AG52">
-        <v>8.1538862291187613</v>
+        <v>8.153886229118761</v>
       </c>
       <c r="AH52">
-        <v>4.5142857142857142</v>
+        <v>4.514285714285714</v>
       </c>
       <c r="AI52">
-        <f>8.98024629186436*1</f>
-        <v>8.9802462918643595</v>
+        <f>8.980246291864363*1</f>
+        <v>0</v>
       </c>
       <c r="AJ52">
-        <f>1.73374556186717*1</f>
-        <v>1.73374556186717</v>
+        <f>1.7337455618671784*1</f>
+        <v>0</v>
       </c>
       <c r="AK52">
         <v>1</v>
@@ -8230,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
         <v>159</v>
       </c>
@@ -8325,21 +8286,21 @@
         <v>215</v>
       </c>
       <c r="AF53">
-        <v>38.934109549019453</v>
+        <v>38.93410954901945</v>
       </c>
       <c r="AG53">
         <v>28.83136193585435</v>
       </c>
       <c r="AH53">
-        <v>29.431666666666661</v>
+        <v>29.43166666666666</v>
       </c>
       <c r="AI53">
-        <f>19.335471785512*1</f>
-        <v>19.335471785511999</v>
+        <f>19.335471785512013*1</f>
+        <v>0</v>
       </c>
       <c r="AJ53">
-        <f>3.73575463172819*1</f>
-        <v>3.7357546317281898</v>
+        <f>3.7357546317281916*1</f>
+        <v>0</v>
       </c>
       <c r="AK53">
         <v>1</v>
@@ -8351,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -8449,18 +8410,18 @@
         <v>17.97413793103448</v>
       </c>
       <c r="AG54">
-        <v>16.861355242586569</v>
+        <v>16.86135524258657</v>
       </c>
       <c r="AH54">
-        <v>24.238823986020741</v>
+        <v>24.23882398602074</v>
       </c>
       <c r="AI54">
-        <f>13.1314161332097*1</f>
-        <v>13.131416133209701</v>
+        <f>13.13141613320979*1</f>
+        <v>0</v>
       </c>
       <c r="AJ54">
-        <f>2.5649096892988*1</f>
-        <v>2.5649096892987999</v>
+        <f>2.5649096892988084*1</f>
+        <v>0</v>
       </c>
       <c r="AK54">
         <v>1</v>
@@ -8472,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -8567,21 +8528,21 @@
         <v>222</v>
       </c>
       <c r="AF55">
-        <v>13.379656201012979</v>
+        <v>13.37965620101298</v>
       </c>
       <c r="AG55">
-        <v>15.488851333385551</v>
+        <v>15.48885133338555</v>
       </c>
       <c r="AH55">
-        <v>5.2762559822801984</v>
+        <v>5.276255982280198</v>
       </c>
       <c r="AI55">
-        <f>14.7691333339081*1</f>
-        <v>14.769133333908099</v>
+        <f>14.76913333390814*1</f>
+        <v>0</v>
       </c>
       <c r="AJ55">
-        <f>2.95036346567067*1</f>
-        <v>2.9503634656706699</v>
+        <f>2.950363465670678*1</f>
+        <v>0</v>
       </c>
       <c r="AK55">
         <v>1</v>
@@ -8593,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -8688,21 +8649,21 @@
         <v>237</v>
       </c>
       <c r="AF56">
-        <v>19.291666666666671</v>
+        <v>19.29166666666667</v>
       </c>
       <c r="AG56">
-        <v>16.655182131955041</v>
+        <v>16.65518213195504</v>
       </c>
       <c r="AH56">
-        <v>11.244859305587919</v>
+        <v>11.24485930558792</v>
       </c>
       <c r="AI56">
-        <f>6.69227972871418*1</f>
-        <v>6.6922797287141798</v>
+        <f>6.6922797287141895*1</f>
+        <v>0</v>
       </c>
       <c r="AJ56">
-        <f>1.26162272183735*1</f>
-        <v>1.2616227218373499</v>
+        <f>1.2616227218373521*1</f>
+        <v>0</v>
       </c>
       <c r="AK56">
         <v>1</v>
@@ -8714,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -8809,21 +8770,21 @@
         <v>238</v>
       </c>
       <c r="AF57">
-        <v>14.827575716052531</v>
+        <v>14.82757571605253</v>
       </c>
       <c r="AG57">
         <v>14.92351940391042</v>
       </c>
       <c r="AH57">
-        <v>7.7751093844869583</v>
+        <v>7.775109384486958</v>
       </c>
       <c r="AI57">
         <f>8.7407201038266*1</f>
-        <v>8.7407201038266003</v>
+        <v>0</v>
       </c>
       <c r="AJ57">
-        <f>1.97705683882548*1</f>
-        <v>1.9770568388254799</v>
+        <f>1.9770568388254826*1</f>
+        <v>0</v>
       </c>
       <c r="AK57">
         <v>1</v>
@@ -8835,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -8924,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AE58">
         <v>239</v>
@@ -8933,18 +8894,18 @@
         <v>19.50511852082073</v>
       </c>
       <c r="AG58">
-        <v>20.187177076606179</v>
+        <v>20.18717707660618</v>
       </c>
       <c r="AH58">
-        <v>9.7518194726469627</v>
+        <v>9.751819472646963</v>
       </c>
       <c r="AI58">
-        <f>12.5150799194104*1</f>
-        <v>12.5150799194104</v>
+        <f>12.515079919410452*1</f>
+        <v>0</v>
       </c>
       <c r="AJ58">
-        <f>2.52425956365709*1</f>
-        <v>2.5242595636570901</v>
+        <f>2.5242595636570995*1</f>
+        <v>0</v>
       </c>
       <c r="AK58">
         <v>1</v>
@@ -8956,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -9045,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="AD59">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AE59">
         <v>241</v>
@@ -9054,18 +9015,18 @@
         <v>10.51020408163266</v>
       </c>
       <c r="AG59">
-        <v>9.4700440336759719</v>
+        <v>9.470044033675972</v>
       </c>
       <c r="AH59">
-        <v>8.6822289499065537</v>
+        <v>8.682228949906554</v>
       </c>
       <c r="AI59">
-        <f>14.6753549680915*1</f>
-        <v>14.675354968091501</v>
+        <f>14.675354968091513*1</f>
+        <v>0</v>
       </c>
       <c r="AJ59">
-        <f>2.58524241796674*1</f>
-        <v>2.5852424179667399</v>
+        <f>2.5852424179667417*1</f>
+        <v>0</v>
       </c>
       <c r="AK59">
         <v>1</v>
@@ -9077,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -9178,15 +9139,15 @@
         <v>11.22054569168092</v>
       </c>
       <c r="AH60">
-        <v>9.2285714285714278</v>
+        <v>9.228571428571428</v>
       </c>
       <c r="AI60">
-        <f>10.2368854898094*1</f>
-        <v>10.236885489809399</v>
+        <f>10.23688548980944*1</f>
+        <v>0</v>
       </c>
       <c r="AJ60">
-        <f>2.01031455602562*1</f>
-        <v>2.0103145560256199</v>
+        <f>2.010314556025629*1</f>
+        <v>0</v>
       </c>
       <c r="AK60">
         <v>1</v>
@@ -9198,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -9293,21 +9254,21 @@
         <v>247</v>
       </c>
       <c r="AF61">
-        <v>14.722222222222211</v>
+        <v>14.72222222222221</v>
       </c>
       <c r="AG61">
         <v>13.05556251278775</v>
       </c>
       <c r="AH61">
-        <v>37.485601336541961</v>
+        <v>37.48560133654196</v>
       </c>
       <c r="AI61">
-        <f>16.6449677561938*1</f>
-        <v>16.6449677561938</v>
+        <f>16.64496775619387*1</f>
+        <v>0</v>
       </c>
       <c r="AJ61">
-        <f>3.06116224503279*1</f>
-        <v>3.06116224503279</v>
+        <f>3.0611622450327993*1</f>
+        <v>0</v>
       </c>
       <c r="AK61">
         <v>1</v>
@@ -9319,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
         <v>177</v>
       </c>
@@ -9417,18 +9378,18 @@
         <v>17.5</v>
       </c>
       <c r="AG62">
-        <v>16.048796562686739</v>
+        <v>16.04879656268674</v>
       </c>
       <c r="AH62">
-        <v>21.411705503237169</v>
+        <v>21.41170550323717</v>
       </c>
       <c r="AI62">
-        <f>26.0793185310249*1</f>
-        <v>26.079318531024899</v>
+        <f>26.079318531024967*1</f>
+        <v>0</v>
       </c>
       <c r="AJ62">
-        <f>5.27160605851971*1</f>
-        <v>5.2716060585197102</v>
+        <f>5.271606058519716*1</f>
+        <v>0</v>
       </c>
       <c r="AK62">
         <v>1</v>
@@ -9440,15 +9401,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -9466,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -9487,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -9502,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -9529,27 +9490,27 @@
         <v>0</v>
       </c>
       <c r="AD63">
-        <v>13.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE63">
-        <v>407</v>
+        <v>255</v>
       </c>
       <c r="AF63">
-        <v>37.046132866701292</v>
+        <v>23.3824224070539</v>
       </c>
       <c r="AG63">
-        <v>35.881537264979698</v>
+        <v>12.21371278691677</v>
       </c>
       <c r="AH63">
-        <v>56.44827387648084</v>
+        <v>20.02178425734812</v>
       </c>
       <c r="AI63">
-        <f>46.0248429791334*1</f>
-        <v>46.024842979133403</v>
+        <f>21.807241917936977*1</f>
+        <v>0</v>
       </c>
       <c r="AJ63">
-        <f>8.5394049988032*1</f>
-        <v>8.5394049988031995</v>
+        <f>3.531587502281081*1</f>
+        <v>0</v>
       </c>
       <c r="AK63">
         <v>1</v>
@@ -9561,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
         <v>182</v>
       </c>
@@ -9665,11 +9626,11 @@
         <v>0</v>
       </c>
       <c r="AI64">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ64">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK64">
@@ -9682,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
         <v>184</v>
       </c>
@@ -9771,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="AD65">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AE65">
         <v>264</v>
@@ -9786,12 +9747,12 @@
         <v>12.53880913346045</v>
       </c>
       <c r="AI65">
-        <f>11.3339001505483*1</f>
-        <v>11.333900150548301</v>
+        <f>11.333900150548368*1</f>
+        <v>0</v>
       </c>
       <c r="AJ65">
-        <f>2.31509717687008*1</f>
-        <v>2.3150971768700801</v>
+        <f>2.3150971768700845*1</f>
+        <v>0</v>
       </c>
       <c r="AK65">
         <v>1</v>
@@ -9803,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -9904,15 +9865,15 @@
         <v>17.77625065800127</v>
       </c>
       <c r="AH66">
-        <v>9.6751668943926621</v>
+        <v>9.675166894392662</v>
       </c>
       <c r="AI66">
-        <f>9.86894831920118*1</f>
-        <v>9.8689483192011807</v>
+        <f>9.868948319201188*1</f>
+        <v>0</v>
       </c>
       <c r="AJ66">
-        <f>1.71187505375195*1</f>
-        <v>1.71187505375195</v>
+        <f>1.7118750537519527*1</f>
+        <v>0</v>
       </c>
       <c r="AK66">
         <v>1</v>
@@ -9924,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -10019,21 +9980,21 @@
         <v>269</v>
       </c>
       <c r="AF67">
-        <v>11.580985488286821</v>
+        <v>11.58098548828682</v>
       </c>
       <c r="AG67">
-        <v>9.0370083131535388</v>
+        <v>9.037008313153539</v>
       </c>
       <c r="AH67">
         <v>12.31646769981405</v>
       </c>
       <c r="AI67">
         <f>8.84790446194109*1</f>
-        <v>8.8479044619410896</v>
+        <v>0</v>
       </c>
       <c r="AJ67">
-        <f>1.76835334236426*1</f>
-        <v>1.7683533423642599</v>
+        <f>1.7683533423642612*1</f>
+        <v>0</v>
       </c>
       <c r="AK67">
         <v>1</v>
@@ -10045,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -10140,7 +10101,7 @@
         <v>271</v>
       </c>
       <c r="AF68">
-        <v>18.000000000000011</v>
+        <v>18.00000000000001</v>
       </c>
       <c r="AG68">
         <v>15.76582603359522</v>
@@ -10149,12 +10110,12 @@
         <v>12.39878814759639</v>
       </c>
       <c r="AI68">
-        <f>7.64911591451607*1</f>
-        <v>7.6491159145160701</v>
+        <f>7.649115914516075*1</f>
+        <v>0</v>
       </c>
       <c r="AJ68">
-        <f>1.46226507169369*1</f>
-        <v>1.46226507169369</v>
+        <f>1.4622650716936976*1</f>
+        <v>0</v>
       </c>
       <c r="AK68">
         <v>1</v>
@@ -10166,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -10261,21 +10222,21 @@
         <v>277</v>
       </c>
       <c r="AF69">
-        <v>16.411886341614011</v>
+        <v>16.41188634161401</v>
       </c>
       <c r="AG69">
-        <v>15.029214137751991</v>
+        <v>15.02921413775199</v>
       </c>
       <c r="AH69">
-        <v>22.036270084055321</v>
+        <v>22.03627008405532</v>
       </c>
       <c r="AI69">
-        <f>13.9328775709926*1</f>
-        <v>13.9328775709926</v>
+        <f>13.932877570992622*1</f>
+        <v>0</v>
       </c>
       <c r="AJ69">
-        <f>2.7382335920699*1</f>
-        <v>2.7382335920698999</v>
+        <f>2.738233592069902*1</f>
+        <v>0</v>
       </c>
       <c r="AK69">
         <v>1</v>
@@ -10287,33 +10248,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -10337,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -10355,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X70">
         <v>0</v>
@@ -10376,27 +10337,27 @@
         <v>0</v>
       </c>
       <c r="AD70">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="AE70">
-        <v>456</v>
+        <v>278</v>
       </c>
       <c r="AF70">
-        <v>20.567874997825051</v>
+        <v>17.2112273188402</v>
       </c>
       <c r="AG70">
-        <v>16.774748297195821</v>
+        <v>14.93071722568402</v>
       </c>
       <c r="AH70">
-        <v>32.053333333333327</v>
+        <v>19.3384387955954</v>
       </c>
       <c r="AI70">
-        <f>29.4754622508334*1</f>
-        <v>29.475462250833399</v>
+        <f>15.690545055339209*1</f>
+        <v>0</v>
       </c>
       <c r="AJ70">
-        <f>6.12561003332704*1</f>
-        <v>6.1256100333270398</v>
+        <f>3.131752287752726*1</f>
+        <v>0</v>
       </c>
       <c r="AK70">
         <v>1</v>
@@ -10408,7 +10369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -10512,11 +10473,11 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ71">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK71">
@@ -10529,249 +10490,249 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>4.9</v>
+      </c>
+      <c r="AE72">
+        <v>281</v>
+      </c>
+      <c r="AF72">
+        <v>18.45132743362831</v>
+      </c>
+      <c r="AG72">
+        <v>19.01991078662022</v>
+      </c>
+      <c r="AH72">
+        <v>33.90088566741023</v>
+      </c>
+      <c r="AI72">
+        <f>16.22488913344029*1</f>
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <f>3.3582057972396546*1</f>
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39">
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" t="s">
         <v>4</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AE72">
-        <v>524</v>
-      </c>
-      <c r="AF72">
-        <v>18.369565217391301</v>
-      </c>
-      <c r="AG72">
-        <v>13.07924454034881</v>
-      </c>
-      <c r="AH72">
-        <v>42.833279003072718</v>
-      </c>
-      <c r="AI72">
-        <f>28.368991288265*1</f>
-        <v>28.368991288265001</v>
-      </c>
-      <c r="AJ72">
-        <f>5.81748010814308*1</f>
-        <v>5.81748010814308</v>
-      </c>
-      <c r="AK72">
-        <v>1</v>
-      </c>
-      <c r="AL72">
-        <v>1</v>
-      </c>
-      <c r="AM72">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>4.8</v>
+      </c>
+      <c r="AE73">
+        <v>282</v>
+      </c>
+      <c r="AF73">
+        <v>14.32106902325494</v>
+      </c>
+      <c r="AG73">
+        <v>14.3344908615509</v>
+      </c>
+      <c r="AH73">
+        <v>20.58913052536774</v>
+      </c>
+      <c r="AI73">
+        <f>13.870516875470617*1</f>
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <f>2.6727097640176534*1</f>
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>375</v>
-      </c>
-      <c r="B73" t="s">
-        <v>376</v>
-      </c>
-      <c r="C73" t="s">
-        <v>377</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>31</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>0</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <v>1</v>
-      </c>
-      <c r="AD73">
-        <v>7.1</v>
-      </c>
-      <c r="AE73">
-        <v>674</v>
-      </c>
-      <c r="AF73">
-        <v>32.740946536434613</v>
-      </c>
-      <c r="AG73">
-        <v>17.58881796525964</v>
-      </c>
-      <c r="AH73">
-        <v>43.445015776071109</v>
-      </c>
-      <c r="AI73">
-        <f>20.4664268842274*1</f>
-        <v>20.466426884227399</v>
-      </c>
-      <c r="AJ73">
-        <f>4.03795525086655*1</f>
-        <v>4.0379552508665499</v>
-      </c>
-      <c r="AK73">
-        <v>1</v>
-      </c>
-      <c r="AL73">
-        <v>1</v>
-      </c>
-      <c r="AM73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
         <v>204</v>
       </c>
@@ -10872,15 +10833,15 @@
         <v>11.55234589989607</v>
       </c>
       <c r="AH74">
-        <v>51.091243172086678</v>
+        <v>51.09124317208668</v>
       </c>
       <c r="AI74">
-        <f>21.369829744494*1</f>
-        <v>21.369829744494002</v>
+        <f>21.369829744494098*1</f>
+        <v>0</v>
       </c>
       <c r="AJ74">
-        <f>4.43221845754297*1</f>
-        <v>4.4322184575429704</v>
+        <f>4.4322184575429775*1</f>
+        <v>0</v>
       </c>
       <c r="AK74">
         <v>1</v>
@@ -10892,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
         <v>206</v>
       </c>
@@ -10987,21 +10948,21 @@
         <v>291</v>
       </c>
       <c r="AF75">
-        <v>9.7500000000000036</v>
+        <v>9.750000000000004</v>
       </c>
       <c r="AG75">
-        <v>7.8865432502303019</v>
+        <v>7.886543250230302</v>
       </c>
       <c r="AH75">
         <v>9.658118709259579</v>
       </c>
       <c r="AI75">
-        <f>8.42406546106941*1</f>
-        <v>8.4240654610694108</v>
+        <f>8.424065461069418*1</f>
+        <v>0</v>
       </c>
       <c r="AJ75">
-        <f>1.65667905320629*1</f>
-        <v>1.6566790532062901</v>
+        <f>1.6566790532062936*1</f>
+        <v>0</v>
       </c>
       <c r="AK75">
         <v>1</v>
@@ -11013,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -11108,21 +11069,21 @@
         <v>297</v>
       </c>
       <c r="AF76">
-        <v>17.176470588235301</v>
+        <v>17.1764705882353</v>
       </c>
       <c r="AG76">
-        <v>18.244606940302749</v>
+        <v>18.24460694030275</v>
       </c>
       <c r="AH76">
         <v>12.625</v>
       </c>
       <c r="AI76">
-        <f>8.74466278619253*1</f>
-        <v>8.7446627861925297</v>
+        <f>8.744662786192533*1</f>
+        <v>0</v>
       </c>
       <c r="AJ76">
-        <f>1.73206613924404*1</f>
-        <v>1.73206613924404</v>
+        <f>1.7320661392440477*1</f>
+        <v>0</v>
       </c>
       <c r="AK76">
         <v>1</v>
@@ -11134,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -11238,12 +11199,12 @@
         <v>12.20752257817716</v>
       </c>
       <c r="AI77">
-        <f>9.41447253099386*1</f>
-        <v>9.4144725309938604</v>
+        <f>9.414472530993862*1</f>
+        <v>0</v>
       </c>
       <c r="AJ77">
-        <f>1.63522799512933*1</f>
-        <v>1.63522799512933</v>
+        <f>1.6352279951293363*1</f>
+        <v>0</v>
       </c>
       <c r="AK77">
         <v>1</v>
@@ -11255,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -11350,21 +11311,21 @@
         <v>304</v>
       </c>
       <c r="AF78">
-        <v>19.391384363182059</v>
+        <v>19.39138436318206</v>
       </c>
       <c r="AG78">
-        <v>12.764651363222921</v>
+        <v>12.76465136322292</v>
       </c>
       <c r="AH78">
         <v>12.1699120435055</v>
       </c>
       <c r="AI78">
-        <f>15.1729307758629*1</f>
-        <v>15.1729307758629</v>
+        <f>15.172930775862973*1</f>
+        <v>0</v>
       </c>
       <c r="AJ78">
-        <f>3.05840168483368*1</f>
-        <v>3.0584016848336799</v>
+        <f>3.0584016848336883*1</f>
+        <v>0</v>
       </c>
       <c r="AK78">
         <v>1</v>
@@ -11376,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
         <v>214</v>
       </c>
@@ -11471,21 +11432,21 @@
         <v>305</v>
       </c>
       <c r="AF79">
-        <v>17.794190582782711</v>
+        <v>17.79419058278271</v>
       </c>
       <c r="AG79">
-        <v>18.568544197719799</v>
+        <v>18.5685441977198</v>
       </c>
       <c r="AH79">
         <v>17.94159973052346</v>
       </c>
       <c r="AI79">
-        <f>14.8143080044061*1</f>
-        <v>14.814308004406101</v>
+        <f>14.81430800440614*1</f>
+        <v>0</v>
       </c>
       <c r="AJ79">
-        <f>2.92521515428105*1</f>
-        <v>2.9252151542810498</v>
+        <f>2.925215154281056*1</f>
+        <v>0</v>
       </c>
       <c r="AK79">
         <v>1</v>
@@ -11497,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
         <v>216</v>
       </c>
@@ -11592,21 +11553,21 @@
         <v>308</v>
       </c>
       <c r="AF80">
-        <v>16.849607134704598</v>
+        <v>16.8496071347046</v>
       </c>
       <c r="AG80">
-        <v>19.005857390404049</v>
+        <v>19.00585739040405</v>
       </c>
       <c r="AH80">
-        <v>18.145497835497839</v>
+        <v>18.14549783549784</v>
       </c>
       <c r="AI80">
-        <f>9.45521165865707*1</f>
-        <v>9.4552116586570705</v>
+        <f>9.455211658657078*1</f>
+        <v>0</v>
       </c>
       <c r="AJ80">
-        <f>1.98303725485067*1</f>
-        <v>1.9830372548506701</v>
+        <f>1.9830372548506787*1</f>
+        <v>0</v>
       </c>
       <c r="AK80">
         <v>1</v>
@@ -11618,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
         <v>219</v>
       </c>
@@ -11716,18 +11677,18 @@
         <v>17.5315506495661</v>
       </c>
       <c r="AG81">
-        <v>19.815599154519919</v>
+        <v>19.81559915451992</v>
       </c>
       <c r="AH81">
-        <v>5.4278948338669686</v>
+        <v>5.427894833866969</v>
       </c>
       <c r="AI81">
-        <f>6.1872136288293*1</f>
-        <v>6.1872136288292996</v>
+        <f>6.1872136288293005*1</f>
+        <v>0</v>
       </c>
       <c r="AJ81">
-        <f>1.20770540570531*1</f>
-        <v>1.20770540570531</v>
+        <f>1.207705405705311*1</f>
+        <v>0</v>
       </c>
       <c r="AK81">
         <v>1</v>
@@ -11739,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
         <v>221</v>
       </c>
@@ -11828,27 +11789,27 @@
         <v>0</v>
       </c>
       <c r="AD82">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AE82">
         <v>312</v>
       </c>
       <c r="AF82">
-        <v>13.391304347826081</v>
+        <v>13.39130434782608</v>
       </c>
       <c r="AG82">
-        <v>12.125119317821349</v>
+        <v>12.12511931782135</v>
       </c>
       <c r="AH82">
-        <v>22.804658055884762</v>
+        <v>22.80465805588476</v>
       </c>
       <c r="AI82">
-        <f>16.7780719307873*1</f>
-        <v>16.778071930787299</v>
+        <f>16.778071930787362*1</f>
+        <v>0</v>
       </c>
       <c r="AJ82">
-        <f>3.41150195160951*1</f>
-        <v>3.4115019516095102</v>
+        <f>3.411501951609513*1</f>
+        <v>0</v>
       </c>
       <c r="AK82">
         <v>1</v>
@@ -11860,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
         <v>223</v>
       </c>
@@ -11961,15 +11922,15 @@
         <v>12.42960339540449</v>
       </c>
       <c r="AH83">
-        <v>17.762061974684109</v>
+        <v>17.76206197468411</v>
       </c>
       <c r="AI83">
-        <f>8.38452891414876*1</f>
-        <v>8.3845289141487598</v>
+        <f>8.384528914148767*1</f>
+        <v>0</v>
       </c>
       <c r="AJ83">
-        <f>1.39993660681087*1</f>
-        <v>1.3999366068108701</v>
+        <f>1.3999366068108765*1</f>
+        <v>0</v>
       </c>
       <c r="AK83">
         <v>1</v>
@@ -11981,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
         <v>225</v>
       </c>
@@ -12082,15 +12043,15 @@
         <v>13.30515134983723</v>
       </c>
       <c r="AH84">
-        <v>15.281818805565051</v>
+        <v>15.28181880556505</v>
       </c>
       <c r="AI84">
-        <f>18.6515931640329*1</f>
-        <v>18.651593164032899</v>
+        <f>18.65159316403299*1</f>
+        <v>0</v>
       </c>
       <c r="AJ84">
-        <f>3.78327966486496*1</f>
-        <v>3.7832796648649598</v>
+        <f>3.783279664864962*1</f>
+        <v>0</v>
       </c>
       <c r="AK84">
         <v>1</v>
@@ -12102,7 +12063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
         <v>227</v>
       </c>
@@ -12191,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="AD85">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AE85">
         <v>328</v>
@@ -12206,11 +12167,11 @@
         <v>0</v>
       </c>
       <c r="AI85">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ85">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK85">
@@ -12223,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
         <v>229</v>
       </c>
@@ -12312,27 +12273,27 @@
         <v>0</v>
       </c>
       <c r="AD86">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AE86">
         <v>349</v>
       </c>
       <c r="AF86">
-        <v>17.062433811228619</v>
+        <v>17.06243381122862</v>
       </c>
       <c r="AG86">
-        <v>35.502141268812302</v>
+        <v>35.5021412688123</v>
       </c>
       <c r="AH86">
-        <v>13.443187670029779</v>
+        <v>13.44318767002978</v>
       </c>
       <c r="AI86">
-        <f>10.631722984956*1</f>
-        <v>10.631722984955999</v>
+        <f>10.63172298495603*1</f>
+        <v>0</v>
       </c>
       <c r="AJ86">
-        <f>1.73971204088367*1</f>
-        <v>1.7397120408836699</v>
+        <f>1.739712040883674*1</f>
+        <v>0</v>
       </c>
       <c r="AK86">
         <v>1</v>
@@ -12344,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
         <v>231</v>
       </c>
@@ -12448,11 +12409,11 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ87">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK87">
@@ -12465,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -12554,27 +12515,27 @@
         <v>0</v>
       </c>
       <c r="AD88">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AE88">
         <v>356</v>
       </c>
       <c r="AF88">
-        <v>12.843137254901951</v>
+        <v>12.84313725490195</v>
       </c>
       <c r="AG88">
-        <v>11.583677938698759</v>
+        <v>11.58367793869876</v>
       </c>
       <c r="AH88">
-        <v>6.9047344322344317</v>
+        <v>6.904734432234432</v>
       </c>
       <c r="AI88">
-        <f>7.52456836859626*1</f>
-        <v>7.5245683685962597</v>
+        <f>7.524568368596267*1</f>
+        <v>0</v>
       </c>
       <c r="AJ88">
-        <f>1.47694993222193*1</f>
-        <v>1.4769499322219299</v>
+        <f>1.476949932221936*1</f>
+        <v>0</v>
       </c>
       <c r="AK88">
         <v>1</v>
@@ -12586,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
         <v>200</v>
       </c>
@@ -12681,21 +12642,21 @@
         <v>357</v>
       </c>
       <c r="AF89">
-        <v>13.975609756097571</v>
+        <v>13.97560975609757</v>
       </c>
       <c r="AG89">
-        <v>13.449490963290261</v>
+        <v>13.44949096329026</v>
       </c>
       <c r="AH89">
         <v>15.02301883622701</v>
       </c>
       <c r="AI89">
-        <f>12.0312230216618*1</f>
-        <v>12.0312230216618</v>
+        <f>12.031223021661827*1</f>
+        <v>0</v>
       </c>
       <c r="AJ89">
-        <f>2.41849777914022*1</f>
-        <v>2.4184977791402198</v>
+        <f>2.4184977791402247*1</f>
+        <v>0</v>
       </c>
       <c r="AK89">
         <v>1</v>
@@ -12707,7 +12668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
         <v>237</v>
       </c>
@@ -12805,18 +12766,18 @@
         <v>15.08565751459844</v>
       </c>
       <c r="AG90">
-        <v>16.957988423711299</v>
+        <v>16.9579884237113</v>
       </c>
       <c r="AH90">
-        <v>6.0019240815943613</v>
+        <v>6.001924081594361</v>
       </c>
       <c r="AI90">
-        <f>10.4555203109378*1</f>
-        <v>10.4555203109378</v>
+        <f>10.455520310937843*1</f>
+        <v>0</v>
       </c>
       <c r="AJ90">
-        <f>2.24895233575831*1</f>
-        <v>2.2489523357583101</v>
+        <f>2.248952335758315*1</f>
+        <v>0</v>
       </c>
       <c r="AK90">
         <v>1</v>
@@ -12828,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
         <v>239</v>
       </c>
@@ -12932,11 +12893,11 @@
         <v>0</v>
       </c>
       <c r="AI91">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ91">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK91">
@@ -12949,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
         <v>241</v>
       </c>
@@ -13038,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="AD92">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AE92">
         <v>372</v>
@@ -13053,11 +13014,11 @@
         <v>0</v>
       </c>
       <c r="AI92">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ92">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK92">
@@ -13070,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
         <v>243</v>
       </c>
@@ -13168,18 +13129,18 @@
         <v>18.2387402753684</v>
       </c>
       <c r="AG93">
-        <v>24.013344815694531</v>
+        <v>24.01334481569453</v>
       </c>
       <c r="AH93">
-        <v>15.506757695397519</v>
+        <v>15.50675769539752</v>
       </c>
       <c r="AI93">
-        <f>20.5929495728828*0.75</f>
-        <v>15.444712179662101</v>
+        <f>20.592949572882816*0.75</f>
+        <v>0</v>
       </c>
       <c r="AJ93">
-        <f>3.84513490395049*0.75</f>
-        <v>2.8838511779628675</v>
+        <f>3.845134903950492*0.75</f>
+        <v>0</v>
       </c>
       <c r="AK93">
         <v>0.75</v>
@@ -13191,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
         <v>245</v>
       </c>
@@ -13295,11 +13256,11 @@
         <v>0</v>
       </c>
       <c r="AI94">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ94">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK94">
@@ -13312,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
         <v>247</v>
       </c>
@@ -13407,21 +13368,21 @@
         <v>391</v>
       </c>
       <c r="AF95">
-        <v>25.047387776129941</v>
+        <v>25.04738777612994</v>
       </c>
       <c r="AG95">
-        <v>28.960684194376011</v>
+        <v>28.96068419437601</v>
       </c>
       <c r="AH95">
-        <v>20.978136568939028</v>
+        <v>20.97813656893903</v>
       </c>
       <c r="AI95">
         <f>10.547946790821*1</f>
-        <v>10.547946790820999</v>
+        <v>0</v>
       </c>
       <c r="AJ95">
-        <f>1.86847109049034*1</f>
-        <v>1.8684710904903401</v>
+        <f>1.868471090490341*1</f>
+        <v>0</v>
       </c>
       <c r="AK95">
         <v>1</v>
@@ -13433,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
         <v>249</v>
       </c>
@@ -13534,15 +13495,15 @@
         <v>15.4388372518615</v>
       </c>
       <c r="AH96">
-        <v>37.285711415021758</v>
+        <v>37.28571141502176</v>
       </c>
       <c r="AI96">
-        <f>22.4114734793712*1</f>
-        <v>22.4114734793712</v>
+        <f>22.411473479371296*1</f>
+        <v>0</v>
       </c>
       <c r="AJ96">
-        <f>3.61525829931057*1</f>
-        <v>3.61525829931057</v>
+        <f>3.615258299310571*1</f>
+        <v>0</v>
       </c>
       <c r="AK96">
         <v>1</v>
@@ -13554,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
         <v>251</v>
       </c>
@@ -13652,18 +13613,18 @@
         <v>11.64948453608247</v>
       </c>
       <c r="AG97">
-        <v>9.6334967841601014</v>
+        <v>9.633496784160101</v>
       </c>
       <c r="AH97">
-        <v>21.361015198252041</v>
+        <v>21.36101519825204</v>
       </c>
       <c r="AI97">
-        <f>3.58394260156996*1</f>
-        <v>3.58394260156996</v>
+        <f>3.5839426015699676*1</f>
+        <v>0</v>
       </c>
       <c r="AJ97">
-        <f>0.844621528269955*1</f>
-        <v>0.84462152826995496</v>
+        <f>0.8446215282699555*1</f>
+        <v>0</v>
       </c>
       <c r="AK97">
         <v>1</v>
@@ -13675,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
         <v>253</v>
       </c>
@@ -13776,15 +13737,15 @@
         <v>12.96051328425613</v>
       </c>
       <c r="AH98">
-        <v>24.505215530656709</v>
+        <v>24.50521553065671</v>
       </c>
       <c r="AI98">
-        <f>10.6686187510209*1</f>
-        <v>10.668618751020899</v>
+        <f>10.668618751020905*1</f>
+        <v>0</v>
       </c>
       <c r="AJ98">
-        <f>2.10415244027012*1</f>
-        <v>2.1041524402701199</v>
+        <f>2.1041524402701253*1</f>
+        <v>0</v>
       </c>
       <c r="AK98">
         <v>1</v>
@@ -13796,15 +13757,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -13822,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -13843,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -13858,7 +13819,7 @@
         <v>0</v>
       </c>
       <c r="U99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V99">
         <v>0</v>
@@ -13885,27 +13846,27 @@
         <v>0</v>
       </c>
       <c r="AD99">
-        <v>5.8</v>
+        <v>13.5</v>
       </c>
       <c r="AE99">
-        <v>255</v>
+        <v>407</v>
       </c>
       <c r="AF99">
-        <v>23.382422407053902</v>
+        <v>37.04613286670129</v>
       </c>
       <c r="AG99">
-        <v>12.213712786916769</v>
+        <v>35.8815372649797</v>
       </c>
       <c r="AH99">
-        <v>20.02178425734812</v>
+        <v>56.44827387648084</v>
       </c>
       <c r="AI99">
-        <f>21.8072419179369*1</f>
-        <v>21.807241917936899</v>
+        <f>46.02484297913346*1</f>
+        <v>0</v>
       </c>
       <c r="AJ99">
-        <f>3.53158750228108*1</f>
-        <v>3.5315875022810799</v>
+        <f>8.539404998803208*1</f>
+        <v>0</v>
       </c>
       <c r="AK99">
         <v>1</v>
@@ -13917,7 +13878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -14012,21 +13973,21 @@
         <v>408</v>
       </c>
       <c r="AF100">
-        <v>15.708088218690371</v>
+        <v>15.70808821869037</v>
       </c>
       <c r="AG100">
-        <v>15.635921306823169</v>
+        <v>15.63592130682317</v>
       </c>
       <c r="AH100">
-        <v>23.013218510768379</v>
+        <v>23.01321851076838</v>
       </c>
       <c r="AI100">
-        <f>14.7588517404716*1</f>
-        <v>14.7588517404716</v>
+        <f>14.75885174047167*1</f>
+        <v>0</v>
       </c>
       <c r="AJ100">
-        <f>3.17341333826952*1</f>
-        <v>3.17341333826952</v>
+        <f>3.173413338269521*1</f>
+        <v>0</v>
       </c>
       <c r="AK100">
         <v>1</v>
@@ -14038,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
         <v>261</v>
       </c>
@@ -14133,21 +14094,21 @@
         <v>415</v>
       </c>
       <c r="AF101">
-        <v>16.122448979591841</v>
+        <v>16.12244897959184</v>
       </c>
       <c r="AG101">
         <v>12.06187303272525</v>
       </c>
       <c r="AH101">
-        <v>36.261726719969452</v>
+        <v>36.26172671996945</v>
       </c>
       <c r="AI101">
-        <f>17.1194172370723*1</f>
-        <v>17.119417237072302</v>
+        <f>17.119417237072327*1</f>
+        <v>0</v>
       </c>
       <c r="AJ101">
-        <f>3.32382942641361*1</f>
-        <v>3.3238294264136101</v>
+        <f>3.3238294264136137*1</f>
+        <v>0</v>
       </c>
       <c r="AK101">
         <v>1</v>
@@ -14159,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
         <v>263</v>
       </c>
@@ -14254,21 +14215,21 @@
         <v>417</v>
       </c>
       <c r="AF102">
-        <v>19.888484455521471</v>
+        <v>19.88848445552147</v>
       </c>
       <c r="AG102">
-        <v>22.119141648067728</v>
+        <v>22.11914164806773</v>
       </c>
       <c r="AH102">
-        <v>8.4083902355734992</v>
+        <v>8.408390235573499</v>
       </c>
       <c r="AI102">
-        <f>11.0290881160363*1</f>
-        <v>11.0290881160363</v>
+        <f>11.029088116036352*1</f>
+        <v>0</v>
       </c>
       <c r="AJ102">
-        <f>1.87262398324569*1</f>
-        <v>1.8726239832456899</v>
+        <f>1.8726239832456972*1</f>
+        <v>0</v>
       </c>
       <c r="AK102">
         <v>1</v>
@@ -14280,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
         <v>265</v>
       </c>
@@ -14375,21 +14336,21 @@
         <v>425</v>
       </c>
       <c r="AF103">
-        <v>19.604293608385561</v>
+        <v>19.60429360838556</v>
       </c>
       <c r="AG103">
-        <v>21.776166890122258</v>
+        <v>21.77616689012226</v>
       </c>
       <c r="AH103">
-        <v>20.324533859185269</v>
+        <v>20.32453385918527</v>
       </c>
       <c r="AI103">
-        <f>16.7028623851159*1</f>
-        <v>16.7028623851159</v>
+        <f>16.702862385115996*1</f>
+        <v>0</v>
       </c>
       <c r="AJ103">
-        <f>3.62431251110937*1</f>
-        <v>3.6243125111093701</v>
+        <f>3.6243125111093706*1</f>
+        <v>0</v>
       </c>
       <c r="AK103">
         <v>1</v>
@@ -14401,7 +14362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
         <v>267</v>
       </c>
@@ -14496,21 +14457,21 @@
         <v>429</v>
       </c>
       <c r="AF104">
-        <v>17.195121951219519</v>
+        <v>17.19512195121952</v>
       </c>
       <c r="AG104">
-        <v>20.343095611579979</v>
+        <v>20.34309561157998</v>
       </c>
       <c r="AH104">
         <v>13.63053938477759</v>
       </c>
       <c r="AI104">
-        <f>19.625059543795*1</f>
-        <v>19.625059543795</v>
+        <f>19.62505954379508*1</f>
+        <v>0</v>
       </c>
       <c r="AJ104">
-        <f>3.24979716434557*1</f>
-        <v>3.2497971643455701</v>
+        <f>3.249797164345578*1</f>
+        <v>0</v>
       </c>
       <c r="AK104">
         <v>1</v>
@@ -14522,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
         <v>269</v>
       </c>
@@ -14617,21 +14578,21 @@
         <v>430</v>
       </c>
       <c r="AF105">
-        <v>16.045089625927481</v>
+        <v>16.04508962592748</v>
       </c>
       <c r="AG105">
-        <v>19.219832983333401</v>
+        <v>19.2198329833334</v>
       </c>
       <c r="AH105">
         <v>4.583816738816739</v>
       </c>
       <c r="AI105">
-        <f>5.4788536103113*1</f>
-        <v>5.4788536103113001</v>
+        <f>5.478853610311307*1</f>
+        <v>0</v>
       </c>
       <c r="AJ105">
-        <f>1.05211440141624*1</f>
-        <v>1.05211440141624</v>
+        <f>1.0521144014162431*1</f>
+        <v>0</v>
       </c>
       <c r="AK105">
         <v>1</v>
@@ -14643,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
         <v>272</v>
       </c>
@@ -14732,27 +14693,27 @@
         <v>0</v>
       </c>
       <c r="AD106">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE106">
         <v>431</v>
       </c>
       <c r="AF106">
-        <v>20.653996203120141</v>
+        <v>20.65399620312014</v>
       </c>
       <c r="AG106">
-        <v>20.343074508899338</v>
+        <v>20.34307450889934</v>
       </c>
       <c r="AH106">
-        <v>30.364868508491739</v>
+        <v>30.36486850849174</v>
       </c>
       <c r="AI106">
-        <f>8.90208036317545*1</f>
-        <v>8.9020803631754504</v>
+        <f>8.902080363175454*1</f>
+        <v>0</v>
       </c>
       <c r="AJ106">
-        <f>1.42830333114349*1</f>
-        <v>1.4283033311434901</v>
+        <f>1.4283033311434912*1</f>
+        <v>0</v>
       </c>
       <c r="AK106">
         <v>1</v>
@@ -14764,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
         <v>274</v>
       </c>
@@ -14862,18 +14823,18 @@
         <v>19.09090909090909</v>
       </c>
       <c r="AG107">
-        <v>16.515187701806411</v>
+        <v>16.51518770180641</v>
       </c>
       <c r="AH107">
-        <v>15.592707280750391</v>
+        <v>15.59270728075039</v>
       </c>
       <c r="AI107">
         <f>9.17586730988069*1</f>
-        <v>9.1758673098806902</v>
+        <v>0</v>
       </c>
       <c r="AJ107">
-        <f>1.60505587551058*1</f>
-        <v>1.6050558755105799</v>
+        <f>1.6050558755105895*1</f>
+        <v>0</v>
       </c>
       <c r="AK107">
         <v>1</v>
@@ -14885,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
         <v>276</v>
       </c>
@@ -14980,21 +14941,21 @@
         <v>434</v>
       </c>
       <c r="AF108">
-        <v>36.666666666666657</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="AG108">
-        <v>51.430759401186741</v>
+        <v>51.43075940118674</v>
       </c>
       <c r="AH108">
         <v>18.42800499107668</v>
       </c>
       <c r="AI108">
-        <f>14.8755431279327*1</f>
-        <v>14.8755431279327</v>
+        <f>14.875543127932724*1</f>
+        <v>0</v>
       </c>
       <c r="AJ108">
-        <f>2.82570927991631*1</f>
-        <v>2.8257092799163099</v>
+        <f>2.825709279916319*1</f>
+        <v>0</v>
       </c>
       <c r="AK108">
         <v>1</v>
@@ -15006,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
         <v>278</v>
       </c>
@@ -15107,15 +15068,15 @@
         <v>8.905456683210387</v>
       </c>
       <c r="AH109">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AI109">
-        <f>4.88825281723686*1</f>
-        <v>4.88825281723686</v>
+        <f>4.888252817236866*1</f>
+        <v>0</v>
       </c>
       <c r="AJ109">
-        <f>0.925565789680377*1</f>
-        <v>0.92556578968037695</v>
+        <f>0.9255657896803771*1</f>
+        <v>0</v>
       </c>
       <c r="AK109">
         <v>1</v>
@@ -15127,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
         <v>280</v>
       </c>
@@ -15225,18 +15186,18 @@
         <v>14.30769230769231</v>
       </c>
       <c r="AG110">
-        <v>19.307005557065409</v>
+        <v>19.30700555706541</v>
       </c>
       <c r="AH110">
-        <v>9.2011925259614333</v>
+        <v>9.201192525961433</v>
       </c>
       <c r="AI110">
         <f>9.53706228749984*1</f>
-        <v>9.5370622874998396</v>
+        <v>0</v>
       </c>
       <c r="AJ110">
-        <f>2.1629520564231*1</f>
-        <v>2.1629520564231002</v>
+        <f>2.162952056423107*1</f>
+        <v>0</v>
       </c>
       <c r="AK110">
         <v>1</v>
@@ -15248,33 +15209,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>282</v>
       </c>
       <c r="B111" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C111" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D111" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -15316,10 +15277,10 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y111">
         <v>0</v>
@@ -15337,27 +15298,27 @@
         <v>0</v>
       </c>
       <c r="AD111">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="AE111">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="AF111">
-        <v>14.04761904761904</v>
+        <v>20.56787499782505</v>
       </c>
       <c r="AG111">
-        <v>12.536152882056969</v>
+        <v>16.77474829719582</v>
       </c>
       <c r="AH111">
-        <v>38</v>
+        <v>32.05333333333333</v>
       </c>
       <c r="AI111">
-        <f>17.92492995572*1</f>
-        <v>17.92492995572</v>
+        <f>29.47546225083341*1</f>
+        <v>0</v>
       </c>
       <c r="AJ111">
-        <f>3.47755971674996*1</f>
-        <v>3.4775597167499601</v>
+        <f>6.125610033327042*1</f>
+        <v>0</v>
       </c>
       <c r="AK111">
         <v>1</v>
@@ -15369,7 +15330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
         <v>284</v>
       </c>
@@ -15464,20 +15425,20 @@
         <v>458</v>
       </c>
       <c r="AF112">
-        <v>22.823529411764699</v>
+        <v>22.8235294117647</v>
       </c>
       <c r="AG112">
-        <v>24.548360154601561</v>
+        <v>24.54836015460156</v>
       </c>
       <c r="AH112">
-        <v>9.8081703395980355</v>
+        <v>9.808170339598036</v>
       </c>
       <c r="AI112">
-        <f>33.8482746888612*0</f>
+        <f>33.848274688861274*0</f>
         <v>0</v>
       </c>
       <c r="AJ112">
-        <f>5.69306104080281*0</f>
+        <f>5.693061040802815*0</f>
         <v>0</v>
       </c>
       <c r="AK112">
@@ -15490,7 +15451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
         <v>287</v>
       </c>
@@ -15588,18 +15549,18 @@
         <v>16.37193968461365</v>
       </c>
       <c r="AG113">
-        <v>20.364203957630949</v>
+        <v>20.36420395763095</v>
       </c>
       <c r="AH113">
-        <v>10.462088784231639</v>
+        <v>10.46208878423164</v>
       </c>
       <c r="AI113">
-        <f>7.77607417488218*1</f>
-        <v>7.7760741748821802</v>
+        <f>7.776074174882188*1</f>
+        <v>0</v>
       </c>
       <c r="AJ113">
-        <f>1.29135390812457*1</f>
-        <v>1.29135390812457</v>
+        <f>1.2913539081245755*1</f>
+        <v>0</v>
       </c>
       <c r="AK113">
         <v>1</v>
@@ -15611,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
         <v>289</v>
       </c>
@@ -15700,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="AD114">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AE114">
         <v>472</v>
@@ -15709,18 +15670,18 @@
         <v>13.4</v>
       </c>
       <c r="AG114">
-        <v>16.503725518204451</v>
+        <v>16.50372551820445</v>
       </c>
       <c r="AH114">
-        <v>8.1479478075206497</v>
+        <v>8.14794780752065</v>
       </c>
       <c r="AI114">
-        <f>10.6749238446689*1</f>
-        <v>10.6749238446689</v>
+        <f>10.674923844668973*1</f>
+        <v>0</v>
       </c>
       <c r="AJ114">
-        <f>2.39177595500161*1</f>
-        <v>2.3917759550016102</v>
+        <f>2.3917759550016116*1</f>
+        <v>0</v>
       </c>
       <c r="AK114">
         <v>1</v>
@@ -15732,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -15827,21 +15788,21 @@
         <v>477</v>
       </c>
       <c r="AF115">
-        <v>21.827411167512679</v>
+        <v>21.82741116751268</v>
       </c>
       <c r="AG115">
-        <v>24.199667461960718</v>
+        <v>24.19966746196072</v>
       </c>
       <c r="AH115">
         <v>15.58860759989223</v>
       </c>
       <c r="AI115">
-        <f>18.4391742129073*1</f>
-        <v>18.4391742129073</v>
+        <f>18.439174212907332*1</f>
+        <v>0</v>
       </c>
       <c r="AJ115">
-        <f>3.68717093034802*1</f>
-        <v>3.68717093034802</v>
+        <f>3.687170930348025*1</f>
+        <v>0</v>
       </c>
       <c r="AK115">
         <v>1</v>
@@ -15853,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
         <v>292</v>
       </c>
@@ -15948,21 +15909,21 @@
         <v>492</v>
       </c>
       <c r="AF116">
-        <v>19.734808801002021</v>
+        <v>19.73480880100202</v>
       </c>
       <c r="AG116">
-        <v>19.108823906880669</v>
+        <v>19.10882390688067</v>
       </c>
       <c r="AH116">
-        <v>7.4535015499607944</v>
+        <v>7.453501549960794</v>
       </c>
       <c r="AI116">
-        <f>10.5133374301768*1</f>
-        <v>10.513337430176801</v>
+        <f>10.513337430176865*1</f>
+        <v>0</v>
       </c>
       <c r="AJ116">
-        <f>1.97962169632313*1</f>
-        <v>1.9796216963231299</v>
+        <f>1.979621696323135*1</f>
+        <v>0</v>
       </c>
       <c r="AK116">
         <v>1</v>
@@ -15974,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
         <v>284</v>
       </c>
@@ -16069,21 +16030,21 @@
         <v>494</v>
       </c>
       <c r="AF117">
-        <v>18.571428571428569</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="AG117">
         <v>19.15291096345161</v>
       </c>
       <c r="AH117">
-        <v>21.309727307101632</v>
+        <v>21.30972730710163</v>
       </c>
       <c r="AI117">
-        <f>16.4932818085782*1</f>
-        <v>16.4932818085782</v>
+        <f>16.493281808578217*1</f>
+        <v>0</v>
       </c>
       <c r="AJ117">
         <f>3.3980259901814*1</f>
-        <v>3.3980259901814001</v>
+        <v>0</v>
       </c>
       <c r="AK117">
         <v>1</v>
@@ -16095,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
         <v>296</v>
       </c>
@@ -16184,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="AD118">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AE118">
         <v>495</v>
@@ -16193,18 +16154,18 @@
         <v>14.84734660971087</v>
       </c>
       <c r="AG118">
-        <v>14.889115982390351</v>
+        <v>14.88911598239035</v>
       </c>
       <c r="AH118">
-        <v>26.782410490694939</v>
+        <v>26.78241049069494</v>
       </c>
       <c r="AI118">
-        <f>14.8416865343729*1</f>
-        <v>14.841686534372901</v>
+        <f>14.841686534372958*1</f>
+        <v>0</v>
       </c>
       <c r="AJ118">
-        <f>2.99532088167945*1</f>
-        <v>2.9953208816794499</v>
+        <f>2.9953208816794583*1</f>
+        <v>0</v>
       </c>
       <c r="AK118">
         <v>1</v>
@@ -16216,7 +16177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
         <v>298</v>
       </c>
@@ -16311,21 +16272,21 @@
         <v>497</v>
       </c>
       <c r="AF119">
-        <v>26.668673734853911</v>
+        <v>26.66867373485391</v>
       </c>
       <c r="AG119">
         <v>15.92529158794572</v>
       </c>
       <c r="AH119">
-        <v>34.273513279941852</v>
+        <v>34.27351327994185</v>
       </c>
       <c r="AI119">
-        <f>33.957693091101*1</f>
-        <v>33.957693091101</v>
+        <f>33.95769309110105*1</f>
+        <v>0</v>
       </c>
       <c r="AJ119">
-        <f>6.18501037924874*1</f>
-        <v>6.1850103792487401</v>
+        <f>6.185010379248742*1</f>
+        <v>0</v>
       </c>
       <c r="AK119">
         <v>1</v>
@@ -16337,24 +16298,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="D120" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -16363,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -16387,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -16408,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="X120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y120">
         <v>0</v>
@@ -16426,27 +16387,27 @@
         <v>0</v>
       </c>
       <c r="AD120">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="AE120">
-        <v>281</v>
+        <v>498</v>
       </c>
       <c r="AF120">
-        <v>18.451327433628311</v>
+        <v>14.04761904761904</v>
       </c>
       <c r="AG120">
-        <v>19.019910786620219</v>
+        <v>12.53615288205697</v>
       </c>
       <c r="AH120">
-        <v>33.900885667410229</v>
+        <v>38</v>
       </c>
       <c r="AI120">
-        <f>16.2248891334402*1</f>
-        <v>16.2248891334402</v>
+        <f>17.924929955720074*1</f>
+        <v>0</v>
       </c>
       <c r="AJ120">
-        <f>3.35820579723965*1</f>
-        <v>3.3582057972396502</v>
+        <f>3.477559716749966*1</f>
+        <v>0</v>
       </c>
       <c r="AK120">
         <v>1</v>
@@ -16458,33 +16419,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>302</v>
       </c>
       <c r="C121" t="s">
-        <v>89</v>
+        <v>302</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -16493,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -16529,7 +16490,7 @@
         <v>0</v>
       </c>
       <c r="X121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y121">
         <v>0</v>
@@ -16547,27 +16508,27 @@
         <v>0</v>
       </c>
       <c r="AD121">
-        <v>4.7</v>
+        <v>9.1</v>
       </c>
       <c r="AE121">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="AF121">
-        <v>20.544958179937481</v>
+        <v>28.30769230769231</v>
       </c>
       <c r="AG121">
-        <v>10.61665009624241</v>
+        <v>26.52047465360803</v>
       </c>
       <c r="AH121">
-        <v>25.061570356339121</v>
+        <v>70.79781746031745</v>
       </c>
       <c r="AI121">
-        <f>16.0851478308837*1</f>
-        <v>16.085147830883699</v>
+        <f>50.58012589585908*1</f>
+        <v>0</v>
       </c>
       <c r="AJ121">
-        <f>3.33325557394564*1</f>
-        <v>3.3332555739456402</v>
+        <f>9.634030894129726*1</f>
+        <v>0</v>
       </c>
       <c r="AK121">
         <v>1</v>
@@ -16579,33 +16540,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="B122" t="s">
-        <v>197</v>
+        <v>304</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="D122" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -16629,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122">
         <v>0</v>
@@ -16650,7 +16611,7 @@
         <v>0</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y122">
         <v>0</v>
@@ -16668,27 +16629,27 @@
         <v>0</v>
       </c>
       <c r="AD122">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AE122">
-        <v>278</v>
+        <v>501</v>
       </c>
       <c r="AF122">
-        <v>17.211227318840201</v>
+        <v>23.03157033577417</v>
       </c>
       <c r="AG122">
-        <v>14.93071722568402</v>
+        <v>9.717495251848295</v>
       </c>
       <c r="AH122">
-        <v>19.338438795595401</v>
+        <v>59.8888888888889</v>
       </c>
       <c r="AI122">
-        <f>15.6905450553392*1</f>
-        <v>15.6905450553392</v>
+        <f>45.422341071627024*1</f>
+        <v>0</v>
       </c>
       <c r="AJ122">
-        <f>3.13175228775272*1</f>
-        <v>3.13175228775272</v>
+        <f>9.066257903540519*1</f>
+        <v>0</v>
       </c>
       <c r="AK122">
         <v>1</v>
@@ -16700,7 +16661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
         <v>306</v>
       </c>
@@ -16795,21 +16756,21 @@
         <v>502</v>
       </c>
       <c r="AF123">
-        <v>15.023650472815691</v>
+        <v>15.02365047281569</v>
       </c>
       <c r="AG123">
-        <v>11.359011557470501</v>
+        <v>11.3590115574705</v>
       </c>
       <c r="AH123">
         <v>36.18361454587027</v>
       </c>
       <c r="AI123">
-        <f>22.1938222490372*1</f>
-        <v>22.193822249037201</v>
+        <f>22.193822249037204*1</f>
+        <v>0</v>
       </c>
       <c r="AJ123">
-        <f>4.76053070870031*1</f>
-        <v>4.7605307087003101</v>
+        <f>4.760530708700316*1</f>
+        <v>0</v>
       </c>
       <c r="AK123">
         <v>1</v>
@@ -16821,7 +16782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
         <v>309</v>
       </c>
@@ -16919,18 +16880,18 @@
         <v>11.33723437703452</v>
       </c>
       <c r="AG124">
-        <v>13.390215660404809</v>
+        <v>13.39021566040481</v>
       </c>
       <c r="AH124">
-        <v>14.311103069895569</v>
+        <v>14.31110306989557</v>
       </c>
       <c r="AI124">
-        <f>12.0165708155945*1</f>
-        <v>12.0165708155945</v>
+        <f>12.016570815594548*1</f>
+        <v>0</v>
       </c>
       <c r="AJ124">
         <f>2.14392867034795*1</f>
-        <v>2.1439286703479499</v>
+        <v>0</v>
       </c>
       <c r="AK124">
         <v>1</v>
@@ -16942,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
         <v>311</v>
       </c>
@@ -17037,21 +16998,21 @@
         <v>514</v>
       </c>
       <c r="AF125">
-        <v>18.442282071192441</v>
+        <v>18.44228207119244</v>
       </c>
       <c r="AG125">
         <v>14.39413574863838</v>
       </c>
       <c r="AH125">
-        <v>27.302039096717319</v>
+        <v>27.30203909671732</v>
       </c>
       <c r="AI125">
-        <f>19.4210393540603*1</f>
-        <v>19.421039354060301</v>
+        <f>19.421039354060362*1</f>
+        <v>0</v>
       </c>
       <c r="AJ125">
-        <f>3.56787683256567*1</f>
-        <v>3.5678768325656698</v>
+        <f>3.5678768325656773*1</f>
+        <v>0</v>
       </c>
       <c r="AK125">
         <v>1</v>
@@ -17063,33 +17024,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>313</v>
       </c>
       <c r="B126" t="s">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="C126" t="s">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="D126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -17101,7 +17062,7 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -17137,7 +17098,7 @@
         <v>0</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z126">
         <v>0</v>
@@ -17152,27 +17113,27 @@
         <v>0</v>
       </c>
       <c r="AD126">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="AE126">
-        <v>128</v>
+        <v>524</v>
       </c>
       <c r="AF126">
-        <v>22.56550085874014</v>
+        <v>18.3695652173913</v>
       </c>
       <c r="AG126">
-        <v>13.55324307542338</v>
+        <v>13.07924454034881</v>
       </c>
       <c r="AH126">
-        <v>14.98704730805051</v>
+        <v>42.83327900307272</v>
       </c>
       <c r="AI126">
-        <f>13.7401719213215*1</f>
-        <v>13.740171921321499</v>
+        <f>28.36899128826509*1</f>
+        <v>0</v>
       </c>
       <c r="AJ126">
-        <f>2.6910304211094*1</f>
-        <v>2.6910304211093998</v>
+        <f>5.817480108143086*1</f>
+        <v>0</v>
       </c>
       <c r="AK126">
         <v>1</v>
@@ -17184,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
         <v>315</v>
       </c>
@@ -17282,18 +17243,18 @@
         <v>10</v>
       </c>
       <c r="AG127">
-        <v>7.5592880008043286</v>
+        <v>7.559288000804329</v>
       </c>
       <c r="AH127">
         <v>23.24</v>
       </c>
       <c r="AI127">
-        <f>17.5986509114286*1</f>
-        <v>17.598650911428599</v>
+        <f>17.598650911428685*1</f>
+        <v>0</v>
       </c>
       <c r="AJ127">
-        <f>3.54634689271855*1</f>
-        <v>3.54634689271855</v>
+        <f>3.546346892718557*1</f>
+        <v>0</v>
       </c>
       <c r="AK127">
         <v>1</v>
@@ -17305,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -17394,27 +17355,27 @@
         <v>0</v>
       </c>
       <c r="AD128">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AE128">
         <v>534</v>
       </c>
       <c r="AF128">
-        <v>16.281167658223861</v>
+        <v>16.28116765822386</v>
       </c>
       <c r="AG128">
-        <v>13.114913435175559</v>
+        <v>13.11491343517556</v>
       </c>
       <c r="AH128">
-        <v>23.714285714285719</v>
+        <v>23.71428571428572</v>
       </c>
       <c r="AI128">
-        <f>21.6337241623515*1</f>
-        <v>21.633724162351498</v>
+        <f>21.633724162351534*1</f>
+        <v>0</v>
       </c>
       <c r="AJ128">
-        <f>5.06342959375689*1</f>
-        <v>5.0634295937568901</v>
+        <f>5.063429593756899*1</f>
+        <v>0</v>
       </c>
       <c r="AK128">
         <v>1</v>
@@ -17426,7 +17387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
         <v>79</v>
       </c>
@@ -17521,21 +17482,21 @@
         <v>535</v>
       </c>
       <c r="AF129">
-        <v>21.001630756417509</v>
+        <v>21.00163075641751</v>
       </c>
       <c r="AG129">
         <v>13.98478406892132</v>
       </c>
       <c r="AH129">
-        <v>36.549999999999997</v>
+        <v>36.55</v>
       </c>
       <c r="AI129">
-        <f>21.362084731067*1</f>
-        <v>21.362084731067</v>
+        <f>21.362084731067085*1</f>
+        <v>0</v>
       </c>
       <c r="AJ129">
-        <f>4.58993229859892*1</f>
-        <v>4.5899322985989199</v>
+        <f>4.589932298598923*1</f>
+        <v>0</v>
       </c>
       <c r="AK129">
         <v>1</v>
@@ -17547,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
         <v>319</v>
       </c>
@@ -17648,15 +17609,15 @@
         <v>13.95564652866727</v>
       </c>
       <c r="AH130">
-        <v>17.390117435647621</v>
+        <v>17.39011743564762</v>
       </c>
       <c r="AI130">
-        <f>14.165365478044*1</f>
-        <v>14.165365478044</v>
+        <f>14.165365478044079*1</f>
+        <v>0</v>
       </c>
       <c r="AJ130">
-        <f>3.01042055788835*1</f>
-        <v>3.0104205578883501</v>
+        <f>3.0104205578883585*1</f>
+        <v>0</v>
       </c>
       <c r="AK130">
         <v>1</v>
@@ -17668,7 +17629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
         <v>321</v>
       </c>
@@ -17757,7 +17718,7 @@
         <v>0</v>
       </c>
       <c r="AD131">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AE131">
         <v>538</v>
@@ -17766,18 +17727,18 @@
         <v>12.6</v>
       </c>
       <c r="AG131">
-        <v>10.511757728873491</v>
+        <v>10.51175772887349</v>
       </c>
       <c r="AH131">
         <v>29.2</v>
       </c>
       <c r="AI131">
-        <f>10.8206836843199*1</f>
-        <v>10.820683684319899</v>
+        <f>10.820683684319993*1</f>
+        <v>0</v>
       </c>
       <c r="AJ131">
-        <f>2.15877036595734*1</f>
-        <v>2.1587703659573401</v>
+        <f>2.1587703659573494*1</f>
+        <v>0</v>
       </c>
       <c r="AK131">
         <v>1</v>
@@ -17789,7 +17750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
         <v>323</v>
       </c>
@@ -17884,21 +17845,21 @@
         <v>539</v>
       </c>
       <c r="AF132">
-        <v>9.4642857142857135</v>
+        <v>9.464285714285714</v>
       </c>
       <c r="AG132">
-        <v>7.1822541994446567</v>
+        <v>7.182254199444657</v>
       </c>
       <c r="AH132">
         <v>30.92</v>
       </c>
       <c r="AI132">
         <f>15.9721165537405*1</f>
-        <v>15.9721165537405</v>
+        <v>0</v>
       </c>
       <c r="AJ132">
-        <f>3.24680118289745*1</f>
-        <v>3.2468011828974501</v>
+        <f>3.246801182897452*1</f>
+        <v>0</v>
       </c>
       <c r="AK132">
         <v>1</v>
@@ -17910,24 +17871,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="C133" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="D133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -17936,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -17960,7 +17921,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R133">
         <v>0</v>
@@ -17984,7 +17945,7 @@
         <v>0</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z133">
         <v>0</v>
@@ -18002,24 +17963,24 @@
         <v>4.8</v>
       </c>
       <c r="AE133">
-        <v>282</v>
+        <v>545</v>
       </c>
       <c r="AF133">
-        <v>14.321069023254941</v>
+        <v>21.88023173010552</v>
       </c>
       <c r="AG133">
-        <v>14.334490861550901</v>
+        <v>16.0417186030144</v>
       </c>
       <c r="AH133">
-        <v>20.589130525367739</v>
+        <v>32.01818181818182</v>
       </c>
       <c r="AI133">
-        <f>13.8705168754706*1</f>
-        <v>13.870516875470599</v>
+        <f>9.20568000366072*1</f>
+        <v>0</v>
       </c>
       <c r="AJ133">
-        <f>2.67270976401765*1</f>
-        <v>2.6727097640176498</v>
+        <f>1.9354042213361558*1</f>
+        <v>0</v>
       </c>
       <c r="AK133">
         <v>1</v>
@@ -18031,7 +17992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
         <v>328</v>
       </c>
@@ -18126,21 +18087,21 @@
         <v>548</v>
       </c>
       <c r="AF134">
-        <v>18.172758628115929</v>
+        <v>18.17275862811593</v>
       </c>
       <c r="AG134">
-        <v>16.685251829611349</v>
+        <v>16.68525182961135</v>
       </c>
       <c r="AH134">
         <v>11.40698688770332</v>
       </c>
       <c r="AI134">
-        <f>7.09219997752645*1</f>
-        <v>7.0921999775264499</v>
+        <f>7.092199977526459*1</f>
+        <v>0</v>
       </c>
       <c r="AJ134">
-        <f>1.25754033495674*1</f>
-        <v>1.25754033495674</v>
+        <f>1.2575403349567462*1</f>
+        <v>0</v>
       </c>
       <c r="AK134">
         <v>1</v>
@@ -18152,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
         <v>330</v>
       </c>
@@ -18256,11 +18217,11 @@
         <v>0</v>
       </c>
       <c r="AI135">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ135">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK135">
@@ -18273,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
         <v>332</v>
       </c>
@@ -18362,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="AD136">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AE136">
         <v>562</v>
@@ -18377,11 +18338,11 @@
         <v>0</v>
       </c>
       <c r="AI136">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ136">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK136">
@@ -18394,7 +18355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
         <v>334</v>
       </c>
@@ -18483,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="AD137">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AE137">
         <v>571</v>
@@ -18498,11 +18459,11 @@
         <v>0</v>
       </c>
       <c r="AI137">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ137">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK137">
@@ -18515,7 +18476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
         <v>336</v>
       </c>
@@ -18619,11 +18580,11 @@
         <v>0</v>
       </c>
       <c r="AI138">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ138">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK138">
@@ -18636,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
         <v>338</v>
       </c>
@@ -18731,21 +18692,21 @@
         <v>586</v>
       </c>
       <c r="AF139">
-        <v>9.9989776556055929</v>
+        <v>9.998977655605593</v>
       </c>
       <c r="AG139">
-        <v>12.396297631038729</v>
+        <v>12.39629763103873</v>
       </c>
       <c r="AH139">
-        <v>14.179602431185099</v>
+        <v>14.1796024311851</v>
       </c>
       <c r="AI139">
-        <f>9.82986496043224*1</f>
-        <v>9.8298649604322392</v>
+        <f>9.829864960432246*1</f>
+        <v>0</v>
       </c>
       <c r="AJ139">
-        <f>1.94499570487273*1</f>
-        <v>1.94499570487273</v>
+        <f>1.9449957048727329*1</f>
+        <v>0</v>
       </c>
       <c r="AK139">
         <v>1</v>
@@ -18757,7 +18718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
         <v>340</v>
       </c>
@@ -18852,21 +18813,21 @@
         <v>589</v>
       </c>
       <c r="AF140">
-        <v>8.0555555291618202</v>
+        <v>8.05555552916182</v>
       </c>
       <c r="AG140">
-        <v>7.1673089194265689</v>
+        <v>7.167308919426569</v>
       </c>
       <c r="AH140">
-        <v>11.097010247873341</v>
+        <v>11.09701024787334</v>
       </c>
       <c r="AI140">
-        <f>9.82351102561037*1</f>
-        <v>9.8235110256103706</v>
+        <f>9.823511025610372*1</f>
+        <v>0</v>
       </c>
       <c r="AJ140">
-        <f>2.00995553268759*1</f>
-        <v>2.0099555326875902</v>
+        <f>2.009955532687597*1</f>
+        <v>0</v>
       </c>
       <c r="AK140">
         <v>1</v>
@@ -18878,7 +18839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
         <v>342</v>
       </c>
@@ -18982,11 +18943,11 @@
         <v>0</v>
       </c>
       <c r="AI141">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ141">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK141">
@@ -18999,7 +18960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
         <v>187</v>
       </c>
@@ -19103,11 +19064,11 @@
         <v>0</v>
       </c>
       <c r="AI142">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ142">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK142">
@@ -19120,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
         <v>347</v>
       </c>
@@ -19221,15 +19182,15 @@
         <v>13.27130059602873</v>
       </c>
       <c r="AH143">
-        <v>18.577166782575969</v>
+        <v>18.57716678257597</v>
       </c>
       <c r="AI143">
-        <f>8.23812426869345*1</f>
-        <v>8.2381242686934506</v>
+        <f>8.238124268693456*1</f>
+        <v>0</v>
       </c>
       <c r="AJ143">
-        <f>1.57633293835817*1</f>
-        <v>1.5763329383581699</v>
+        <f>1.5763329383581735*1</f>
+        <v>0</v>
       </c>
       <c r="AK143">
         <v>1</v>
@@ -19241,7 +19202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
         <v>349</v>
       </c>
@@ -19336,21 +19297,21 @@
         <v>609</v>
       </c>
       <c r="AF144">
-        <v>19.583333333333339</v>
+        <v>19.58333333333334</v>
       </c>
       <c r="AG144">
-        <v>17.338567061296789</v>
+        <v>17.33856706129679</v>
       </c>
       <c r="AH144">
-        <v>19.483233153978741</v>
+        <v>19.48323315397874</v>
       </c>
       <c r="AI144">
-        <f>14.4123536750879*1</f>
-        <v>14.4123536750879</v>
+        <f>14.412353675087923*1</f>
+        <v>0</v>
       </c>
       <c r="AJ144">
-        <f>3.02082359875973*1</f>
-        <v>3.0208235987597298</v>
+        <f>3.0208235987597307*1</f>
+        <v>0</v>
       </c>
       <c r="AK144">
         <v>1</v>
@@ -19362,7 +19323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
         <v>202</v>
       </c>
@@ -19457,21 +19418,21 @@
         <v>611</v>
       </c>
       <c r="AF145">
-        <v>25.106979454656241</v>
+        <v>25.10697945465624</v>
       </c>
       <c r="AG145">
-        <v>22.294563712787809</v>
+        <v>22.29456371278781</v>
       </c>
       <c r="AH145">
         <v>29.05877238512582</v>
       </c>
       <c r="AI145">
-        <f>24.7400817284863*1</f>
-        <v>24.740081728486299</v>
+        <f>24.740081728486317*1</f>
+        <v>0</v>
       </c>
       <c r="AJ145">
-        <f>5.30373360813557*1</f>
-        <v>5.3037336081355697</v>
+        <f>5.303733608135575*1</f>
+        <v>0</v>
       </c>
       <c r="AK145">
         <v>1</v>
@@ -19483,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -19581,18 +19542,18 @@
         <v>18.63636363636364</v>
       </c>
       <c r="AG146">
-        <v>20.825968084367432</v>
+        <v>20.82596808436743</v>
       </c>
       <c r="AH146">
-        <v>11.786734670341829</v>
+        <v>11.78673467034183</v>
       </c>
       <c r="AI146">
-        <f>17.2694011871407*1</f>
-        <v>17.269401187140701</v>
+        <f>17.269401187140787*1</f>
+        <v>0</v>
       </c>
       <c r="AJ146">
-        <f>3.0051493830285*1</f>
-        <v>3.0051493830284999</v>
+        <f>3.0051493830285088*1</f>
+        <v>0</v>
       </c>
       <c r="AK146">
         <v>1</v>
@@ -19604,7 +19565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
         <v>354</v>
       </c>
@@ -19708,12 +19669,12 @@
         <v>11.09230769230769</v>
       </c>
       <c r="AI147">
-        <f>8.38020987192978*1</f>
-        <v>8.3802098719297806</v>
+        <f>8.380209871929788*1</f>
+        <v>0</v>
       </c>
       <c r="AJ147">
-        <f>1.76364048946698*1</f>
-        <v>1.7636404894669799</v>
+        <f>1.7636404894669877*1</f>
+        <v>0</v>
       </c>
       <c r="AK147">
         <v>1</v>
@@ -19725,7 +19686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
         <v>356</v>
       </c>
@@ -19814,27 +19775,27 @@
         <v>0</v>
       </c>
       <c r="AD148">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE148">
         <v>619</v>
       </c>
       <c r="AF148">
-        <v>26.745539943633041</v>
+        <v>26.74553994363304</v>
       </c>
       <c r="AG148">
-        <v>36.381569177760547</v>
+        <v>36.38156917776055</v>
       </c>
       <c r="AH148">
-        <v>16.662474468170149</v>
+        <v>16.66247446817015</v>
       </c>
       <c r="AI148">
-        <f>11.0196132626597*1</f>
-        <v>11.0196132626597</v>
+        <f>11.019613262659739*1</f>
+        <v>0</v>
       </c>
       <c r="AJ148">
-        <f>2.20923294370508*1</f>
-        <v>2.2092329437050799</v>
+        <f>2.209232943705089*1</f>
+        <v>0</v>
       </c>
       <c r="AK148">
         <v>1</v>
@@ -19843,10 +19804,10 @@
         <v>1</v>
       </c>
       <c r="AM148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
         <v>358</v>
       </c>
@@ -19935,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="AD149">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AE149">
         <v>635</v>
@@ -19944,18 +19905,18 @@
         <v>16.31428571428571</v>
       </c>
       <c r="AG149">
-        <v>16.523371275472709</v>
+        <v>16.52337127547271</v>
       </c>
       <c r="AH149">
-        <v>21.914239353530579</v>
+        <v>21.91423935353058</v>
       </c>
       <c r="AI149">
-        <f>30.6793536592415*1</f>
-        <v>30.679353659241499</v>
+        <f>30.67935365924159*1</f>
+        <v>0</v>
       </c>
       <c r="AJ149">
         <f>6.12508589594198*1</f>
-        <v>6.1250858959419796</v>
+        <v>0</v>
       </c>
       <c r="AK149">
         <v>1</v>
@@ -19967,7 +19928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
         <v>360</v>
       </c>
@@ -20062,21 +20023,21 @@
         <v>639</v>
       </c>
       <c r="AF150">
-        <v>22.409555105822729</v>
+        <v>22.40955510582273</v>
       </c>
       <c r="AG150">
-        <v>23.709316700613591</v>
+        <v>23.70931670061359</v>
       </c>
       <c r="AH150">
-        <v>56.046360536581389</v>
+        <v>56.04636053658139</v>
       </c>
       <c r="AI150">
-        <f>14.3958623914319*1</f>
-        <v>14.395862391431899</v>
+        <f>14.395862391431937*1</f>
+        <v>0</v>
       </c>
       <c r="AJ150">
-        <f>2.9005031329857*1</f>
-        <v>2.9005031329856998</v>
+        <f>2.900503132985709*1</f>
+        <v>0</v>
       </c>
       <c r="AK150">
         <v>1</v>
@@ -20088,7 +20049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
         <v>362</v>
       </c>
@@ -20177,27 +20138,27 @@
         <v>0</v>
       </c>
       <c r="AD151">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AE151">
         <v>643</v>
       </c>
       <c r="AF151">
-        <v>11.244460717635111</v>
+        <v>11.24446071763511</v>
       </c>
       <c r="AG151">
-        <v>8.5382766906513279</v>
+        <v>8.538276690651328</v>
       </c>
       <c r="AH151">
-        <v>16.466666666666669</v>
+        <v>16.46666666666667</v>
       </c>
       <c r="AI151">
-        <f>16.0887546892842*1</f>
-        <v>16.088754689284201</v>
+        <f>16.088754689284286*1</f>
+        <v>0</v>
       </c>
       <c r="AJ151">
-        <f>3.20818626535654*1</f>
-        <v>3.2081862653565398</v>
+        <f>3.2081862653565443*1</f>
+        <v>0</v>
       </c>
       <c r="AK151">
         <v>1</v>
@@ -20209,7 +20170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
         <v>364</v>
       </c>
@@ -20304,21 +20265,21 @@
         <v>648</v>
       </c>
       <c r="AF152">
-        <v>20.342149249805249</v>
+        <v>20.34214924980525</v>
       </c>
       <c r="AG152">
-        <v>14.324472083426491</v>
+        <v>14.32447208342649</v>
       </c>
       <c r="AH152">
-        <v>22.561807991844759</v>
+        <v>22.56180799184476</v>
       </c>
       <c r="AI152">
-        <f>14.072395162364*1</f>
-        <v>14.072395162364</v>
+        <f>14.072395162364039*1</f>
+        <v>0</v>
       </c>
       <c r="AJ152">
-        <f>2.66506589934722*1</f>
-        <v>2.66506589934722</v>
+        <f>2.6650658993472294*1</f>
+        <v>0</v>
       </c>
       <c r="AK152">
         <v>1</v>
@@ -20330,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
         <v>366</v>
       </c>
@@ -20425,7 +20386,7 @@
         <v>650</v>
       </c>
       <c r="AF153">
-        <v>16.192778948581189</v>
+        <v>16.19277894858119</v>
       </c>
       <c r="AG153">
         <v>20.38329449809358</v>
@@ -20435,11 +20396,11 @@
       </c>
       <c r="AI153">
         <f>13.3094027235488*1</f>
-        <v>13.3094027235488</v>
+        <v>0</v>
       </c>
       <c r="AJ153">
-        <f>3.15734898836637*1</f>
-        <v>3.1573489883663699</v>
+        <f>3.1573489883663712*1</f>
+        <v>0</v>
       </c>
       <c r="AK153">
         <v>1</v>
@@ -20451,7 +20412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:39">
       <c r="A154" t="s">
         <v>369</v>
       </c>
@@ -20540,7 +20501,7 @@
         <v>0</v>
       </c>
       <c r="AD154">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AE154">
         <v>651</v>
@@ -20555,12 +20516,12 @@
         <v>14.92</v>
       </c>
       <c r="AI154">
-        <f>10.2970112155995*1</f>
-        <v>10.2970112155995</v>
+        <f>10.297011215599554*1</f>
+        <v>0</v>
       </c>
       <c r="AJ154">
-        <f>2.71134963938634*1</f>
-        <v>2.7113496393863401</v>
+        <f>2.7113496393863405*1</f>
+        <v>0</v>
       </c>
       <c r="AK154">
         <v>1</v>
@@ -20572,7 +20533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:39">
       <c r="A155" t="s">
         <v>371</v>
       </c>
@@ -20661,13 +20622,13 @@
         <v>0</v>
       </c>
       <c r="AD155">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AE155">
         <v>653</v>
       </c>
       <c r="AF155">
-        <v>16.296296296296301</v>
+        <v>16.2962962962963</v>
       </c>
       <c r="AG155">
         <v>18.71912495197877</v>
@@ -20676,12 +20637,12 @@
         <v>10.06666666666667</v>
       </c>
       <c r="AI155">
-        <f>15.6669303405055*1</f>
-        <v>15.6669303405055</v>
+        <f>15.666930340505512*1</f>
+        <v>0</v>
       </c>
       <c r="AJ155">
-        <f>2.95537603537999*1</f>
-        <v>2.9553760353799898</v>
+        <f>2.955376035379993*1</f>
+        <v>0</v>
       </c>
       <c r="AK155">
         <v>1</v>
@@ -20693,7 +20654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:39">
       <c r="A156" t="s">
         <v>373</v>
       </c>
@@ -20782,27 +20743,27 @@
         <v>1</v>
       </c>
       <c r="AD156">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AE156">
         <v>668</v>
       </c>
       <c r="AF156">
-        <v>10.394736842105271</v>
+        <v>10.39473684210527</v>
       </c>
       <c r="AG156">
-        <v>15.324607932560619</v>
+        <v>15.32460793256062</v>
       </c>
       <c r="AH156">
-        <v>7.8969789976840321</v>
+        <v>7.896978997684032</v>
       </c>
       <c r="AI156">
-        <f>7.41526574287107*1</f>
-        <v>7.4152657428710702</v>
+        <f>7.415265742871073*1</f>
+        <v>0</v>
       </c>
       <c r="AJ156">
-        <f>1.52874752582502*1</f>
-        <v>1.52874752582502</v>
+        <f>1.5287475258250227*1</f>
+        <v>0</v>
       </c>
       <c r="AK156">
         <v>1</v>
@@ -20814,21 +20775,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:39">
       <c r="A157" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="B157" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="C157" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="D157" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -20837,10 +20798,10 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -20888,7 +20849,7 @@
         <v>0</v>
       </c>
       <c r="Y157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z157">
         <v>0</v>
@@ -20900,30 +20861,30 @@
         <v>0</v>
       </c>
       <c r="AC157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD157">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="AE157">
-        <v>545</v>
+        <v>674</v>
       </c>
       <c r="AF157">
-        <v>21.880231730105521</v>
+        <v>32.74094653643461</v>
       </c>
       <c r="AG157">
-        <v>16.041718603014399</v>
+        <v>17.58881796525964</v>
       </c>
       <c r="AH157">
-        <v>32.018181818181823</v>
+        <v>43.44501577607111</v>
       </c>
       <c r="AI157">
-        <f>9.20568000366072*1</f>
-        <v>9.2056800036607207</v>
+        <f>20.466426884227452*1</f>
+        <v>0</v>
       </c>
       <c r="AJ157">
-        <f>1.93540422133615*1</f>
-        <v>1.93540422133615</v>
+        <f>4.037955250866558*1</f>
+        <v>0</v>
       </c>
       <c r="AK157">
         <v>1</v>
@@ -20935,7 +20896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:39">
       <c r="A158" t="s">
         <v>378</v>
       </c>
@@ -21030,21 +20991,21 @@
         <v>681</v>
       </c>
       <c r="AF158">
-        <v>12.678571428571431</v>
+        <v>12.67857142857143</v>
       </c>
       <c r="AG158">
-        <v>12.184557322293079</v>
+        <v>12.18455732229308</v>
       </c>
       <c r="AH158">
-        <v>35.625986012611392</v>
+        <v>35.62598601261139</v>
       </c>
       <c r="AI158">
-        <f>29.3348380908152*1</f>
-        <v>29.3348380908152</v>
+        <f>29.334838090815214*1</f>
+        <v>0</v>
       </c>
       <c r="AJ158">
-        <f>5.76308318523485*1</f>
-        <v>5.7630831852348496</v>
+        <f>5.763083185234859*1</f>
+        <v>0</v>
       </c>
       <c r="AK158">
         <v>1</v>
@@ -21053,10 +21014,10 @@
         <v>0</v>
       </c>
       <c r="AM158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:39">
       <c r="A159" t="s">
         <v>381</v>
       </c>
@@ -21145,7 +21106,7 @@
         <v>1</v>
       </c>
       <c r="AD159">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AE159">
         <v>686</v>
@@ -21160,12 +21121,12 @@
         <v>11.68571428571429</v>
       </c>
       <c r="AI159">
-        <f>18.2110751184533*1</f>
-        <v>18.211075118453302</v>
+        <f>18.211075118453394*1</f>
+        <v>0</v>
       </c>
       <c r="AJ159">
-        <f>3.83247476595098*1</f>
-        <v>3.8324747659509799</v>
+        <f>3.8324747659509866*1</f>
+        <v>0</v>
       </c>
       <c r="AK159">
         <v>1</v>
@@ -21177,7 +21138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:39">
       <c r="A160" t="s">
         <v>384</v>
       </c>
@@ -21281,12 +21242,12 @@
         <v>11.75002870026894</v>
       </c>
       <c r="AI160">
-        <f>9.03412452555684*1</f>
-        <v>9.0341245255568392</v>
+        <f>9.034124525556848*1</f>
+        <v>0</v>
       </c>
       <c r="AJ160">
-        <f>1.80353033794023*1</f>
-        <v>1.8035303379402301</v>
+        <f>1.803530337940236*1</f>
+        <v>0</v>
       </c>
       <c r="AK160">
         <v>1</v>
@@ -21298,7 +21259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:39">
       <c r="A161" t="s">
         <v>387</v>
       </c>
@@ -21399,15 +21360,15 @@
         <v>15.99441376202493</v>
       </c>
       <c r="AH161">
-        <v>23.923069045452252</v>
+        <v>23.92306904545225</v>
       </c>
       <c r="AI161">
-        <f>19.8067709223342*1</f>
-        <v>19.806770922334199</v>
+        <f>19.806770922334223*1</f>
+        <v>0</v>
       </c>
       <c r="AJ161">
-        <f>3.16020327195522*1</f>
-        <v>3.1602032719552202</v>
+        <f>3.1602032719552247*1</f>
+        <v>0</v>
       </c>
       <c r="AK161">
         <v>1</v>
@@ -21419,7 +21380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:39">
       <c r="A162" t="s">
         <v>390</v>
       </c>
@@ -21523,11 +21484,11 @@
         <v>0</v>
       </c>
       <c r="AI162">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AJ162">
-        <f>0*1</f>
+        <f>0.0*1</f>
         <v>0</v>
       </c>
       <c r="AK162">
@@ -21540,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:39">
       <c r="A163" t="s">
         <v>392</v>
       </c>
@@ -21635,21 +21596,21 @@
         <v>699</v>
       </c>
       <c r="AF163">
-        <v>11.619718309859151</v>
+        <v>11.61971830985915</v>
       </c>
       <c r="AG163">
-        <v>11.840852262963191</v>
+        <v>11.84085226296319</v>
       </c>
       <c r="AH163">
-        <v>19.903686810209791</v>
+        <v>19.90368681020979</v>
       </c>
       <c r="AI163">
-        <f>19.4453396324954*1</f>
-        <v>19.445339632495401</v>
+        <f>19.44533963249541*1</f>
+        <v>0</v>
       </c>
       <c r="AJ163">
-        <f>3.82519526645905*1</f>
-        <v>3.8251952664590498</v>
+        <f>3.8251952664590565*1</f>
+        <v>0</v>
       </c>
       <c r="AK163">
         <v>1</v>
